--- a/Resources/Distribution of Transportation Fatalities by Mode.xlsx
+++ b/Resources/Distribution of Transportation Fatalities by Mode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\NTS\2017\Q4\Federal Review\To Web Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7fc1888e1acd26e6/Documents/GIT/Project1/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C8F8500-7C9D-4D95-A0EC-3C6DF94D7F52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="-15" windowWidth="11325" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-4" sheetId="15" r:id="rId1"/>
@@ -31,7 +32,7 @@
     <definedName name="HTML_Title" hidden="1">"Table 2-4"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2-4'!$A$1:$AC$57</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1243,15 +1244,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="166" formatCode="\(\P\)\ General"/>
-    <numFmt numFmtId="168" formatCode="\(\R\)\ General"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="\(\P\)\ General"/>
+    <numFmt numFmtId="166" formatCode="\(\R\)\ General"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1389,12 +1390,6 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1779,10 +1774,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1792,106 +1787,34 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="19" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="10" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1922,7 +1845,22 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="10" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,45 +1869,130 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="11" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="34">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="31"/>
-    <cellStyle name="Data" xfId="2"/>
-    <cellStyle name="Data Superscript" xfId="3"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="4"/>
-    <cellStyle name="Hed Side" xfId="5"/>
-    <cellStyle name="Hed Side bold" xfId="6"/>
-    <cellStyle name="Hed Side Regular" xfId="7"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="8"/>
-    <cellStyle name="Hed Top" xfId="9"/>
+    <cellStyle name="Comma 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Data" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Data Superscript" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hed Side" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hed Side bold" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Hed Top" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="29"/>
-    <cellStyle name="Normal 2 2" xfId="32"/>
-    <cellStyle name="Normal 3" xfId="28"/>
-    <cellStyle name="Normal 4" xfId="33"/>
-    <cellStyle name="Normal_3-4A (2)" xfId="10"/>
-    <cellStyle name="Percent 2" xfId="30"/>
-    <cellStyle name="Source Hed" xfId="11"/>
-    <cellStyle name="Source Superscript" xfId="12"/>
-    <cellStyle name="Source Text" xfId="13"/>
-    <cellStyle name="Superscript" xfId="14"/>
-    <cellStyle name="Table Data" xfId="15"/>
-    <cellStyle name="Table Head Top" xfId="16"/>
-    <cellStyle name="Table Hed Side" xfId="17"/>
-    <cellStyle name="Table Title" xfId="18"/>
-    <cellStyle name="Title Text" xfId="19"/>
-    <cellStyle name="Title Text 1" xfId="20"/>
-    <cellStyle name="Title Text 2" xfId="21"/>
-    <cellStyle name="Title-1" xfId="22"/>
-    <cellStyle name="Title-2" xfId="23"/>
-    <cellStyle name="Title-3" xfId="24"/>
-    <cellStyle name="Wrap" xfId="25"/>
-    <cellStyle name="Wrap Bold" xfId="26"/>
-    <cellStyle name="Wrap Title" xfId="27"/>
+    <cellStyle name="Normal 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 4" xfId="33" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal_3-4A (2)" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Source Hed" xfId="11" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Source Superscript" xfId="12" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Source Text" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Superscript" xfId="14" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Table Data" xfId="15" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Table Head Top" xfId="16" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Table Hed Side" xfId="17" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Table Title" xfId="18" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Title Text" xfId="19" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Title Text 1" xfId="20" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Title Text 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Title-1" xfId="22" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Title-2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Title-3" xfId="24" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Wrap" xfId="25" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Wrap Bold" xfId="26" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Wrap Title" xfId="27" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{04DF0930-F049-4087-AC6D-0911CF352A78}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2301,7 +2324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2311,271 +2334,271 @@
       <selection sqref="A1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="71" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="66" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="66" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="66" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="66" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="66" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" style="66" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="5" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="66" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="5" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="66" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="5" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="73" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="2" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" style="66" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="5" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" style="66" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="5" customWidth="1"/>
-    <col min="28" max="28" width="7.7109375" style="66" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" style="5" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" style="66" customWidth="1"/>
-    <col min="31" max="31" width="7.7109375" style="5" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" style="66" customWidth="1"/>
-    <col min="33" max="33" width="7.7109375" style="5" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" style="67" customWidth="1"/>
-    <col min="35" max="35" width="7.7109375" style="12" customWidth="1"/>
-    <col min="36" max="36" width="7.7109375" style="67" customWidth="1"/>
-    <col min="37" max="37" width="7.7109375" style="12" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="43.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="42" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.7265625" style="42" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" style="42" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" style="42" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="7.7265625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" style="42" customWidth="1"/>
+    <col min="19" max="19" width="7.7265625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="7.7265625" style="42" customWidth="1"/>
+    <col min="21" max="21" width="7.7265625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="7.7265625" style="49" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="7.7265625" style="42" customWidth="1"/>
+    <col min="25" max="25" width="7.7265625" style="5" customWidth="1"/>
+    <col min="26" max="26" width="7.7265625" style="42" customWidth="1"/>
+    <col min="27" max="27" width="7.7265625" style="5" customWidth="1"/>
+    <col min="28" max="28" width="7.7265625" style="42" customWidth="1"/>
+    <col min="29" max="29" width="7.7265625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="7.7265625" style="42" customWidth="1"/>
+    <col min="31" max="31" width="7.7265625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="7.7265625" style="42" customWidth="1"/>
+    <col min="33" max="33" width="7.7265625" style="5" customWidth="1"/>
+    <col min="34" max="34" width="7.7265625" style="43" customWidth="1"/>
+    <col min="35" max="35" width="7.7265625" style="12" customWidth="1"/>
+    <col min="36" max="36" width="7.7265625" style="43" customWidth="1"/>
+    <col min="37" max="37" width="7.7265625" style="12" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-    </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+    </row>
+    <row r="2" spans="1:37" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
-      <c r="B2" s="45">
+      <c r="B2" s="55">
         <v>1999</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="61">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57">
         <v>2000</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="45">
+      <c r="E2" s="57"/>
+      <c r="F2" s="55">
         <v>2001</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="59">
+      <c r="G2" s="56"/>
+      <c r="H2" s="60">
         <v>2002</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="59">
+      <c r="I2" s="56"/>
+      <c r="J2" s="60">
         <v>2003</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="59">
+      <c r="K2" s="56"/>
+      <c r="L2" s="60">
         <v>2004</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="45">
+      <c r="M2" s="60"/>
+      <c r="N2" s="55">
         <v>2005</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="59">
+      <c r="O2" s="56"/>
+      <c r="P2" s="60">
         <v>2006</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="59">
+      <c r="Q2" s="56"/>
+      <c r="R2" s="60">
         <v>2007</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="45">
+      <c r="S2" s="56"/>
+      <c r="T2" s="55">
         <v>2008</v>
       </c>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60">
+      <c r="U2" s="60"/>
+      <c r="V2" s="65">
         <v>2009</v>
       </c>
-      <c r="W2" s="58"/>
-      <c r="X2" s="60">
+      <c r="W2" s="64"/>
+      <c r="X2" s="65">
         <v>2010</v>
       </c>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="57">
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="63">
         <v>2011</v>
       </c>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="60">
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="65">
         <v>2012</v>
       </c>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="57">
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="63">
         <v>2013</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="60">
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65">
         <v>2014</v>
       </c>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="64">
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="61">
         <v>2015</v>
       </c>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="80">
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="78">
         <v>2016</v>
       </c>
-      <c r="AK2" s="81"/>
+      <c r="AK2" s="79"/>
     </row>
     <row r="3" spans="1:37" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="M3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="65" t="s">
+      <c r="P3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="72" t="s">
+      <c r="R3" s="48" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="65" t="s">
+      <c r="T3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="U3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="65" t="s">
+      <c r="V3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="W3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="65" t="s">
+      <c r="X3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="Y3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="74" t="s">
+      <c r="Z3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AA3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="51" t="s">
         <v>3</v>
       </c>
       <c r="AC3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="74" t="s">
+      <c r="AD3" s="50" t="s">
         <v>3</v>
       </c>
       <c r="AE3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="65" t="s">
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="AG3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="65" t="s">
+      <c r="AH3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="AI3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AJ3" s="65" t="s">
+      <c r="AJ3" s="41" t="s">
         <v>3</v>
       </c>
       <c r="AK3" s="40" t="s">
@@ -6352,3665 +6375,3665 @@
         <v>4.562275054493841E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62" t="s">
+    <row r="38" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-    </row>
-    <row r="39" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="63"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="63"/>
-      <c r="AG39" s="63"/>
-    </row>
-    <row r="40" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="58"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="58"/>
+      <c r="X38" s="58"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="58"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+    </row>
+    <row r="39" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+    </row>
+    <row r="40" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="49"/>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="49"/>
-      <c r="AD40" s="49"/>
-      <c r="AE40" s="49"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="49"/>
-      <c r="AH40" s="76"/>
-      <c r="AJ40" s="76"/>
-    </row>
-    <row r="41" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54" t="s">
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="71"/>
+      <c r="X40" s="71"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="71"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="52"/>
+      <c r="AJ40" s="52"/>
+    </row>
+    <row r="41" spans="1:37" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="54"/>
-      <c r="R41" s="54"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="54"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="54"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="54"/>
-      <c r="Y41" s="54"/>
-      <c r="Z41" s="54"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="54"/>
-      <c r="AC41" s="54"/>
-      <c r="AD41" s="54"/>
-      <c r="AE41" s="54"/>
-      <c r="AF41" s="54"/>
-      <c r="AG41" s="54"/>
-      <c r="AH41" s="76"/>
-      <c r="AJ41" s="76"/>
-    </row>
-    <row r="42" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+      <c r="Y41" s="72"/>
+      <c r="Z41" s="72"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="72"/>
+      <c r="AC41" s="72"/>
+      <c r="AD41" s="72"/>
+      <c r="AE41" s="72"/>
+      <c r="AF41" s="72"/>
+      <c r="AG41" s="72"/>
+      <c r="AH41" s="52"/>
+      <c r="AJ41" s="52"/>
+    </row>
+    <row r="42" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="76"/>
-      <c r="AJ42" s="76"/>
-    </row>
-    <row r="43" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="81"/>
+      <c r="Y42" s="81"/>
+      <c r="Z42" s="81"/>
+      <c r="AA42" s="81"/>
+      <c r="AB42" s="81"/>
+      <c r="AC42" s="81"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="81"/>
+      <c r="AF42" s="81"/>
+      <c r="AG42" s="81"/>
+      <c r="AH42" s="52"/>
+      <c r="AJ42" s="52"/>
+    </row>
+    <row r="43" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="49"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="49"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="76"/>
-      <c r="AJ43" s="76"/>
-    </row>
-    <row r="44" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="54" t="s">
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
+      <c r="AD43" s="71"/>
+      <c r="AE43" s="71"/>
+      <c r="AF43" s="71"/>
+      <c r="AG43" s="71"/>
+      <c r="AH43" s="52"/>
+      <c r="AJ43" s="52"/>
+    </row>
+    <row r="44" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
-      <c r="R44" s="54"/>
-      <c r="S44" s="54"/>
-      <c r="T44" s="54"/>
-      <c r="U44" s="54"/>
-      <c r="V44" s="54"/>
-      <c r="W44" s="54"/>
-      <c r="X44" s="54"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="54"/>
-      <c r="AA44" s="54"/>
-      <c r="AB44" s="54"/>
-      <c r="AC44" s="54"/>
-      <c r="AD44" s="54"/>
-      <c r="AE44" s="54"/>
-      <c r="AF44" s="54"/>
-      <c r="AG44" s="54"/>
-      <c r="AH44" s="76"/>
-      <c r="AJ44" s="76"/>
-    </row>
-    <row r="45" spans="1:37" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55" t="s">
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="72"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="72"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="72"/>
+      <c r="AG44" s="72"/>
+      <c r="AH44" s="52"/>
+      <c r="AJ44" s="52"/>
+    </row>
+    <row r="45" spans="1:37" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
-      <c r="V45" s="55"/>
-      <c r="W45" s="55"/>
-      <c r="X45" s="55"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="55"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="55"/>
-      <c r="AE45" s="55"/>
-      <c r="AF45" s="55"/>
-      <c r="AG45" s="55"/>
-      <c r="AH45" s="77"/>
-      <c r="AJ45" s="77"/>
-    </row>
-    <row r="46" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="49" t="s">
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="73"/>
+      <c r="AC45" s="73"/>
+      <c r="AD45" s="73"/>
+      <c r="AE45" s="73"/>
+      <c r="AF45" s="73"/>
+      <c r="AG45" s="73"/>
+      <c r="AH45" s="53"/>
+      <c r="AJ45" s="53"/>
+    </row>
+    <row r="46" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="76"/>
-      <c r="AJ46" s="76"/>
-    </row>
-    <row r="47" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
+      <c r="B46" s="71"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
+      <c r="Z46" s="71"/>
+      <c r="AA46" s="71"/>
+      <c r="AB46" s="71"/>
+      <c r="AC46" s="71"/>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="71"/>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="71"/>
+      <c r="AH46" s="52"/>
+      <c r="AJ46" s="52"/>
+    </row>
+    <row r="47" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="48"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="48"/>
-      <c r="Z47" s="48"/>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="76"/>
-      <c r="AJ47" s="76"/>
-    </row>
-    <row r="48" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="49" t="s">
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
+      <c r="T47" s="74"/>
+      <c r="U47" s="74"/>
+      <c r="V47" s="74"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="74"/>
+      <c r="Y47" s="74"/>
+      <c r="Z47" s="74"/>
+      <c r="AA47" s="74"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="74"/>
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="74"/>
+      <c r="AG47" s="74"/>
+      <c r="AH47" s="52"/>
+      <c r="AJ47" s="52"/>
+    </row>
+    <row r="48" spans="1:37" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="Q48" s="49"/>
-      <c r="R48" s="49"/>
-      <c r="S48" s="49"/>
-      <c r="T48" s="49"/>
-      <c r="U48" s="49"/>
-      <c r="V48" s="49"/>
-      <c r="W48" s="49"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="49"/>
-      <c r="AC48" s="49"/>
-      <c r="AD48" s="49"/>
-      <c r="AE48" s="49"/>
-      <c r="AF48" s="49"/>
-      <c r="AG48" s="49"/>
-      <c r="AH48" s="76"/>
-      <c r="AJ48" s="76"/>
-    </row>
-    <row r="49" spans="1:36" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
+      <c r="AA48" s="71"/>
+      <c r="AB48" s="71"/>
+      <c r="AC48" s="71"/>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="71"/>
+      <c r="AH48" s="52"/>
+      <c r="AJ48" s="52"/>
+    </row>
+    <row r="49" spans="1:36" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50"/>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="76"/>
-      <c r="AJ49" s="76"/>
-    </row>
-    <row r="50" spans="1:36" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="49" t="s">
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="75"/>
+      <c r="K49" s="75"/>
+      <c r="L49" s="75"/>
+      <c r="M49" s="75"/>
+      <c r="N49" s="75"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="75"/>
+      <c r="T49" s="75"/>
+      <c r="U49" s="75"/>
+      <c r="V49" s="75"/>
+      <c r="W49" s="75"/>
+      <c r="X49" s="75"/>
+      <c r="Y49" s="75"/>
+      <c r="Z49" s="75"/>
+      <c r="AA49" s="75"/>
+      <c r="AB49" s="75"/>
+      <c r="AC49" s="75"/>
+      <c r="AD49" s="75"/>
+      <c r="AE49" s="75"/>
+      <c r="AF49" s="75"/>
+      <c r="AG49" s="75"/>
+      <c r="AH49" s="52"/>
+      <c r="AJ49" s="52"/>
+    </row>
+    <row r="50" spans="1:36" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="Q50" s="49"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="49"/>
-      <c r="T50" s="49"/>
-      <c r="U50" s="49"/>
-      <c r="V50" s="49"/>
-      <c r="W50" s="49"/>
-      <c r="X50" s="49"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="49"/>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="49"/>
-      <c r="AC50" s="49"/>
-      <c r="AD50" s="49"/>
-      <c r="AE50" s="49"/>
-      <c r="AF50" s="49"/>
-      <c r="AG50" s="49"/>
-      <c r="AH50" s="76"/>
-      <c r="AJ50" s="76"/>
-    </row>
-    <row r="51" spans="1:36" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="51"/>
-      <c r="V51" s="51"/>
-      <c r="W51" s="51"/>
-      <c r="X51" s="51"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="51"/>
-      <c r="AB51" s="51"/>
-      <c r="AC51" s="51"/>
-      <c r="AD51" s="51"/>
-      <c r="AE51" s="51"/>
-      <c r="AF51" s="51"/>
-      <c r="AG51" s="51"/>
-      <c r="AH51" s="76"/>
-      <c r="AJ51" s="76"/>
-    </row>
-    <row r="52" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52" t="s">
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="71"/>
+      <c r="AB50" s="71"/>
+      <c r="AC50" s="71"/>
+      <c r="AD50" s="71"/>
+      <c r="AE50" s="71"/>
+      <c r="AF50" s="71"/>
+      <c r="AG50" s="71"/>
+      <c r="AH50" s="52"/>
+      <c r="AJ50" s="52"/>
+    </row>
+    <row r="51" spans="1:36" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="76"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="76"/>
+      <c r="P51" s="76"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="76"/>
+      <c r="S51" s="76"/>
+      <c r="T51" s="76"/>
+      <c r="U51" s="76"/>
+      <c r="V51" s="76"/>
+      <c r="W51" s="76"/>
+      <c r="X51" s="76"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="76"/>
+      <c r="AA51" s="76"/>
+      <c r="AB51" s="76"/>
+      <c r="AC51" s="76"/>
+      <c r="AD51" s="76"/>
+      <c r="AE51" s="76"/>
+      <c r="AF51" s="76"/>
+      <c r="AG51" s="76"/>
+      <c r="AH51" s="52"/>
+      <c r="AJ51" s="52"/>
+    </row>
+    <row r="52" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
-      <c r="T52" s="52"/>
-      <c r="U52" s="52"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="52"/>
-      <c r="X52" s="52"/>
-      <c r="Y52" s="52"/>
-      <c r="Z52" s="52"/>
-      <c r="AA52" s="52"/>
-      <c r="AB52" s="52"/>
-      <c r="AC52" s="52"/>
-      <c r="AD52" s="52"/>
-      <c r="AE52" s="52"/>
-      <c r="AF52" s="52"/>
-      <c r="AG52" s="52"/>
-      <c r="AH52" s="78"/>
-      <c r="AJ52" s="78"/>
-    </row>
-    <row r="53" spans="1:36" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="50" t="s">
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="77"/>
+      <c r="X52" s="77"/>
+      <c r="Y52" s="77"/>
+      <c r="Z52" s="77"/>
+      <c r="AA52" s="77"/>
+      <c r="AB52" s="77"/>
+      <c r="AC52" s="77"/>
+      <c r="AD52" s="77"/>
+      <c r="AE52" s="77"/>
+      <c r="AF52" s="77"/>
+      <c r="AG52" s="77"/>
+      <c r="AH52" s="54"/>
+      <c r="AJ52" s="54"/>
+    </row>
+    <row r="53" spans="1:36" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
-      <c r="W53" s="50"/>
-      <c r="X53" s="50"/>
-      <c r="Y53" s="50"/>
-      <c r="Z53" s="50"/>
-      <c r="AA53" s="50"/>
-      <c r="AB53" s="50"/>
-      <c r="AC53" s="50"/>
-      <c r="AD53" s="50"/>
-      <c r="AE53" s="50"/>
-      <c r="AF53" s="50"/>
-      <c r="AG53" s="50"/>
-      <c r="AH53" s="78"/>
-      <c r="AJ53" s="78"/>
-    </row>
-    <row r="54" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="75"/>
+      <c r="O53" s="75"/>
+      <c r="P53" s="75"/>
+      <c r="Q53" s="75"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="75"/>
+      <c r="T53" s="75"/>
+      <c r="U53" s="75"/>
+      <c r="V53" s="75"/>
+      <c r="W53" s="75"/>
+      <c r="X53" s="75"/>
+      <c r="Y53" s="75"/>
+      <c r="Z53" s="75"/>
+      <c r="AA53" s="75"/>
+      <c r="AB53" s="75"/>
+      <c r="AC53" s="75"/>
+      <c r="AD53" s="75"/>
+      <c r="AE53" s="75"/>
+      <c r="AF53" s="75"/>
+      <c r="AG53" s="75"/>
+      <c r="AH53" s="54"/>
+      <c r="AJ53" s="54"/>
+    </row>
+    <row r="54" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="50"/>
-      <c r="O54" s="50"/>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
-      <c r="W54" s="50"/>
-      <c r="X54" s="50"/>
-      <c r="Y54" s="50"/>
-      <c r="Z54" s="50"/>
-      <c r="AA54" s="50"/>
-      <c r="AB54" s="50"/>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="50"/>
-      <c r="AE54" s="50"/>
-      <c r="AF54" s="50"/>
-      <c r="AG54" s="50"/>
-      <c r="AH54" s="78"/>
-      <c r="AJ54" s="78"/>
-    </row>
-    <row r="55" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="50" t="s">
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
+      <c r="W54" s="75"/>
+      <c r="X54" s="75"/>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="75"/>
+      <c r="AA54" s="75"/>
+      <c r="AB54" s="75"/>
+      <c r="AC54" s="75"/>
+      <c r="AD54" s="75"/>
+      <c r="AE54" s="75"/>
+      <c r="AF54" s="75"/>
+      <c r="AG54" s="75"/>
+      <c r="AH54" s="54"/>
+      <c r="AJ54" s="54"/>
+    </row>
+    <row r="55" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="50"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
-      <c r="N55" s="50"/>
-      <c r="O55" s="50"/>
-      <c r="P55" s="50"/>
-      <c r="Q55" s="50"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
-      <c r="W55" s="50"/>
-      <c r="X55" s="50"/>
-      <c r="Y55" s="50"/>
-      <c r="Z55" s="50"/>
-      <c r="AA55" s="50"/>
-      <c r="AB55" s="50"/>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="50"/>
-      <c r="AF55" s="50"/>
-      <c r="AG55" s="50"/>
-      <c r="AH55" s="78"/>
-      <c r="AJ55" s="78"/>
-    </row>
-    <row r="56" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="75"/>
+      <c r="O55" s="75"/>
+      <c r="P55" s="75"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="75"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="75"/>
+      <c r="W55" s="75"/>
+      <c r="X55" s="75"/>
+      <c r="Y55" s="75"/>
+      <c r="Z55" s="75"/>
+      <c r="AA55" s="75"/>
+      <c r="AB55" s="75"/>
+      <c r="AC55" s="75"/>
+      <c r="AD55" s="75"/>
+      <c r="AE55" s="75"/>
+      <c r="AF55" s="75"/>
+      <c r="AG55" s="75"/>
+      <c r="AH55" s="54"/>
+      <c r="AJ55" s="54"/>
+    </row>
+    <row r="56" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
-      <c r="N56" s="50"/>
-      <c r="O56" s="50"/>
-      <c r="P56" s="50"/>
-      <c r="Q56" s="50"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="50"/>
-      <c r="Y56" s="50"/>
-      <c r="Z56" s="50"/>
-      <c r="AA56" s="50"/>
-      <c r="AB56" s="50"/>
-      <c r="AC56" s="50"/>
-      <c r="AD56" s="50"/>
-      <c r="AE56" s="50"/>
-      <c r="AF56" s="50"/>
-      <c r="AG56" s="50"/>
-      <c r="AH56" s="78"/>
-      <c r="AJ56" s="78"/>
-    </row>
-    <row r="57" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
-      <c r="W57" s="50"/>
-      <c r="X57" s="50"/>
-      <c r="Y57" s="50"/>
-      <c r="Z57" s="50"/>
-      <c r="AA57" s="50"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="50"/>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="50"/>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="78"/>
-      <c r="AJ57" s="78"/>
-    </row>
-    <row r="58" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="43" t="s">
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
+      <c r="M56" s="75"/>
+      <c r="N56" s="75"/>
+      <c r="O56" s="75"/>
+      <c r="P56" s="75"/>
+      <c r="Q56" s="75"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="75"/>
+      <c r="U56" s="75"/>
+      <c r="V56" s="75"/>
+      <c r="W56" s="75"/>
+      <c r="X56" s="75"/>
+      <c r="Y56" s="75"/>
+      <c r="Z56" s="75"/>
+      <c r="AA56" s="75"/>
+      <c r="AB56" s="75"/>
+      <c r="AC56" s="75"/>
+      <c r="AD56" s="75"/>
+      <c r="AE56" s="75"/>
+      <c r="AF56" s="75"/>
+      <c r="AG56" s="75"/>
+      <c r="AH56" s="54"/>
+      <c r="AJ56" s="54"/>
+    </row>
+    <row r="57" spans="1:36" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
+      <c r="M57" s="75"/>
+      <c r="N57" s="75"/>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75"/>
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="75"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="75"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
+      <c r="X57" s="75"/>
+      <c r="Y57" s="75"/>
+      <c r="Z57" s="75"/>
+      <c r="AA57" s="75"/>
+      <c r="AB57" s="75"/>
+      <c r="AC57" s="75"/>
+      <c r="AD57" s="75"/>
+      <c r="AE57" s="75"/>
+      <c r="AF57" s="75"/>
+      <c r="AG57" s="75"/>
+      <c r="AH57" s="54"/>
+      <c r="AJ57" s="54"/>
+    </row>
+    <row r="58" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
-      <c r="AA58" s="43"/>
-      <c r="AB58" s="43"/>
-      <c r="AC58" s="43"/>
-      <c r="AD58" s="43"/>
-      <c r="AE58" s="43"/>
-      <c r="AF58" s="43"/>
-      <c r="AG58" s="43"/>
-    </row>
-    <row r="59" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="43" t="s">
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="67"/>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+      <c r="T58" s="67"/>
+      <c r="U58" s="67"/>
+      <c r="V58" s="67"/>
+      <c r="W58" s="67"/>
+      <c r="X58" s="67"/>
+      <c r="Y58" s="67"/>
+      <c r="Z58" s="67"/>
+      <c r="AA58" s="67"/>
+      <c r="AB58" s="67"/>
+      <c r="AC58" s="67"/>
+      <c r="AD58" s="67"/>
+      <c r="AE58" s="67"/>
+      <c r="AF58" s="67"/>
+      <c r="AG58" s="67"/>
+    </row>
+    <row r="59" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
-      <c r="AA59" s="43"/>
-      <c r="AB59" s="43"/>
-      <c r="AC59" s="43"/>
-      <c r="AD59" s="43"/>
-      <c r="AE59" s="43"/>
-      <c r="AF59" s="43"/>
-      <c r="AG59" s="43"/>
-    </row>
-    <row r="60" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42" t="s">
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="67"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="67"/>
+      <c r="Q59" s="67"/>
+      <c r="R59" s="67"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="67"/>
+      <c r="W59" s="67"/>
+      <c r="X59" s="67"/>
+      <c r="Y59" s="67"/>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="67"/>
+      <c r="AB59" s="67"/>
+      <c r="AC59" s="67"/>
+      <c r="AD59" s="67"/>
+      <c r="AE59" s="67"/>
+      <c r="AF59" s="67"/>
+      <c r="AG59" s="67"/>
+    </row>
+    <row r="60" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-    </row>
-    <row r="61" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="44" t="s">
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+      <c r="AF60" s="68"/>
+      <c r="AG60" s="68"/>
+    </row>
+    <row r="61" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="44"/>
-      <c r="T61" s="44"/>
-      <c r="U61" s="44"/>
-      <c r="V61" s="44"/>
-      <c r="W61" s="44"/>
-      <c r="X61" s="44"/>
-      <c r="Y61" s="44"/>
-      <c r="Z61" s="44"/>
-      <c r="AA61" s="44"/>
-      <c r="AB61" s="44"/>
-      <c r="AC61" s="44"/>
-      <c r="AD61" s="44"/>
-      <c r="AE61" s="44"/>
-      <c r="AF61" s="44"/>
-      <c r="AG61" s="44"/>
-    </row>
-    <row r="62" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="44" t="s">
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="66"/>
+      <c r="Q61" s="66"/>
+      <c r="R61" s="66"/>
+      <c r="S61" s="66"/>
+      <c r="T61" s="66"/>
+      <c r="U61" s="66"/>
+      <c r="V61" s="66"/>
+      <c r="W61" s="66"/>
+      <c r="X61" s="66"/>
+      <c r="Y61" s="66"/>
+      <c r="Z61" s="66"/>
+      <c r="AA61" s="66"/>
+      <c r="AB61" s="66"/>
+      <c r="AC61" s="66"/>
+      <c r="AD61" s="66"/>
+      <c r="AE61" s="66"/>
+      <c r="AF61" s="66"/>
+      <c r="AG61" s="66"/>
+    </row>
+    <row r="62" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="44"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="44"/>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="44"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="44"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="44"/>
-    </row>
-    <row r="63" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="44" t="s">
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+      <c r="P62" s="66"/>
+      <c r="Q62" s="66"/>
+      <c r="R62" s="66"/>
+      <c r="S62" s="66"/>
+      <c r="T62" s="66"/>
+      <c r="U62" s="66"/>
+      <c r="V62" s="66"/>
+      <c r="W62" s="66"/>
+      <c r="X62" s="66"/>
+      <c r="Y62" s="66"/>
+      <c r="Z62" s="66"/>
+      <c r="AA62" s="66"/>
+      <c r="AB62" s="66"/>
+      <c r="AC62" s="66"/>
+      <c r="AD62" s="66"/>
+      <c r="AE62" s="66"/>
+      <c r="AF62" s="66"/>
+      <c r="AG62" s="66"/>
+    </row>
+    <row r="63" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="44"/>
-      <c r="X63" s="44"/>
-      <c r="Y63" s="44"/>
-      <c r="Z63" s="44"/>
-      <c r="AA63" s="44"/>
-      <c r="AB63" s="44"/>
-      <c r="AC63" s="44"/>
-      <c r="AD63" s="44"/>
-      <c r="AE63" s="44"/>
-      <c r="AF63" s="44"/>
-      <c r="AG63" s="44"/>
-    </row>
-    <row r="64" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+      <c r="P63" s="66"/>
+      <c r="Q63" s="66"/>
+      <c r="R63" s="66"/>
+      <c r="S63" s="66"/>
+      <c r="T63" s="66"/>
+      <c r="U63" s="66"/>
+      <c r="V63" s="66"/>
+      <c r="W63" s="66"/>
+      <c r="X63" s="66"/>
+      <c r="Y63" s="66"/>
+      <c r="Z63" s="66"/>
+      <c r="AA63" s="66"/>
+      <c r="AB63" s="66"/>
+      <c r="AC63" s="66"/>
+      <c r="AD63" s="66"/>
+      <c r="AE63" s="66"/>
+      <c r="AF63" s="66"/>
+      <c r="AG63" s="66"/>
+    </row>
+    <row r="64" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="44"/>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="44"/>
-      <c r="AC64" s="44"/>
-      <c r="AD64" s="44"/>
-      <c r="AE64" s="44"/>
-      <c r="AF64" s="44"/>
-      <c r="AG64" s="44"/>
-    </row>
-    <row r="65" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="66"/>
+      <c r="AB64" s="66"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
+      <c r="AE64" s="66"/>
+      <c r="AF64" s="66"/>
+      <c r="AG64" s="66"/>
+    </row>
+    <row r="65" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="44"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="44"/>
-      <c r="AC65" s="44"/>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="44"/>
-    </row>
-    <row r="66" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="42" t="s">
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="66"/>
+      <c r="U65" s="66"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
+      <c r="Z65" s="66"/>
+      <c r="AA65" s="66"/>
+      <c r="AB65" s="66"/>
+      <c r="AC65" s="66"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="66"/>
+      <c r="AF65" s="66"/>
+      <c r="AG65" s="66"/>
+    </row>
+    <row r="66" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="42"/>
-      <c r="Z66" s="42"/>
-      <c r="AA66" s="42"/>
-      <c r="AB66" s="42"/>
-      <c r="AC66" s="42"/>
-      <c r="AD66" s="42"/>
-      <c r="AE66" s="42"/>
-      <c r="AF66" s="42"/>
-      <c r="AG66" s="42"/>
-    </row>
-    <row r="67" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="68"/>
+      <c r="O66" s="68"/>
+      <c r="P66" s="68"/>
+      <c r="Q66" s="68"/>
+      <c r="R66" s="68"/>
+      <c r="S66" s="68"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="68"/>
+      <c r="W66" s="68"/>
+      <c r="X66" s="68"/>
+      <c r="Y66" s="68"/>
+      <c r="Z66" s="68"/>
+      <c r="AA66" s="68"/>
+      <c r="AB66" s="68"/>
+      <c r="AC66" s="68"/>
+      <c r="AD66" s="68"/>
+      <c r="AE66" s="68"/>
+      <c r="AF66" s="68"/>
+      <c r="AG66" s="68"/>
+    </row>
+    <row r="67" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
-      <c r="N67" s="44"/>
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="44"/>
-      <c r="U67" s="44"/>
-      <c r="V67" s="44"/>
-      <c r="W67" s="44"/>
-      <c r="X67" s="44"/>
-      <c r="Y67" s="44"/>
-      <c r="Z67" s="44"/>
-      <c r="AA67" s="44"/>
-      <c r="AB67" s="44"/>
-      <c r="AC67" s="44"/>
-      <c r="AD67" s="44"/>
-      <c r="AE67" s="44"/>
-      <c r="AF67" s="44"/>
-      <c r="AG67" s="44"/>
-    </row>
-    <row r="68" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="44" t="s">
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="66"/>
+      <c r="X67" s="66"/>
+      <c r="Y67" s="66"/>
+      <c r="Z67" s="66"/>
+      <c r="AA67" s="66"/>
+      <c r="AB67" s="66"/>
+      <c r="AC67" s="66"/>
+      <c r="AD67" s="66"/>
+      <c r="AE67" s="66"/>
+      <c r="AF67" s="66"/>
+      <c r="AG67" s="66"/>
+    </row>
+    <row r="68" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
-      <c r="Q68" s="44"/>
-      <c r="R68" s="44"/>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="44"/>
-      <c r="X68" s="44"/>
-      <c r="Y68" s="44"/>
-      <c r="Z68" s="44"/>
-      <c r="AA68" s="44"/>
-      <c r="AB68" s="44"/>
-      <c r="AC68" s="44"/>
-      <c r="AD68" s="44"/>
-      <c r="AE68" s="44"/>
-      <c r="AF68" s="44"/>
-      <c r="AG68" s="44"/>
-    </row>
-    <row r="69" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="42" t="s">
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="66"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="66"/>
+      <c r="X68" s="66"/>
+      <c r="Y68" s="66"/>
+      <c r="Z68" s="66"/>
+      <c r="AA68" s="66"/>
+      <c r="AB68" s="66"/>
+      <c r="AC68" s="66"/>
+      <c r="AD68" s="66"/>
+      <c r="AE68" s="66"/>
+      <c r="AF68" s="66"/>
+      <c r="AG68" s="66"/>
+    </row>
+    <row r="69" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="42"/>
-      <c r="V69" s="42"/>
-      <c r="W69" s="42"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="42"/>
-      <c r="AA69" s="42"/>
-      <c r="AB69" s="42"/>
-      <c r="AC69" s="42"/>
-      <c r="AD69" s="42"/>
-      <c r="AE69" s="42"/>
-      <c r="AF69" s="42"/>
-      <c r="AG69" s="42"/>
-    </row>
-    <row r="70" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="44" t="s">
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="68"/>
+      <c r="R69" s="68"/>
+      <c r="S69" s="68"/>
+      <c r="T69" s="68"/>
+      <c r="U69" s="68"/>
+      <c r="V69" s="68"/>
+      <c r="W69" s="68"/>
+      <c r="X69" s="68"/>
+      <c r="Y69" s="68"/>
+      <c r="Z69" s="68"/>
+      <c r="AA69" s="68"/>
+      <c r="AB69" s="68"/>
+      <c r="AC69" s="68"/>
+      <c r="AD69" s="68"/>
+      <c r="AE69" s="68"/>
+      <c r="AF69" s="68"/>
+      <c r="AG69" s="68"/>
+    </row>
+    <row r="70" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="44"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="44"/>
-      <c r="X70" s="44"/>
-      <c r="Y70" s="44"/>
-      <c r="Z70" s="44"/>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="44"/>
-      <c r="AF70" s="44"/>
-      <c r="AG70" s="44"/>
-    </row>
-    <row r="71" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="44" t="s">
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+      <c r="P70" s="66"/>
+      <c r="Q70" s="66"/>
+      <c r="R70" s="66"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="66"/>
+      <c r="U70" s="66"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="66"/>
+      <c r="X70" s="66"/>
+      <c r="Y70" s="66"/>
+      <c r="Z70" s="66"/>
+      <c r="AA70" s="66"/>
+      <c r="AB70" s="66"/>
+      <c r="AC70" s="66"/>
+      <c r="AD70" s="66"/>
+      <c r="AE70" s="66"/>
+      <c r="AF70" s="66"/>
+      <c r="AG70" s="66"/>
+    </row>
+    <row r="71" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="44"/>
-      <c r="AA71" s="44"/>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="44"/>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="44"/>
-      <c r="AF71" s="44"/>
-      <c r="AG71" s="44"/>
-    </row>
-    <row r="72" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="42" t="s">
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+      <c r="P71" s="66"/>
+      <c r="Q71" s="66"/>
+      <c r="R71" s="66"/>
+      <c r="S71" s="66"/>
+      <c r="T71" s="66"/>
+      <c r="U71" s="66"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="66"/>
+      <c r="X71" s="66"/>
+      <c r="Y71" s="66"/>
+      <c r="Z71" s="66"/>
+      <c r="AA71" s="66"/>
+      <c r="AB71" s="66"/>
+      <c r="AC71" s="66"/>
+      <c r="AD71" s="66"/>
+      <c r="AE71" s="66"/>
+      <c r="AF71" s="66"/>
+      <c r="AG71" s="66"/>
+    </row>
+    <row r="72" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
-      <c r="Q72" s="42"/>
-      <c r="R72" s="42"/>
-      <c r="S72" s="42"/>
-      <c r="T72" s="42"/>
-      <c r="U72" s="42"/>
-      <c r="V72" s="42"/>
-      <c r="W72" s="42"/>
-      <c r="X72" s="42"/>
-      <c r="Y72" s="42"/>
-      <c r="Z72" s="42"/>
-      <c r="AA72" s="42"/>
-      <c r="AB72" s="42"/>
-      <c r="AC72" s="42"/>
-      <c r="AD72" s="42"/>
-      <c r="AE72" s="42"/>
-      <c r="AF72" s="42"/>
-      <c r="AG72" s="42"/>
-    </row>
-    <row r="73" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="44" t="s">
+      <c r="B72" s="68"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="68"/>
+      <c r="Q72" s="68"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="68"/>
+      <c r="T72" s="68"/>
+      <c r="U72" s="68"/>
+      <c r="V72" s="68"/>
+      <c r="W72" s="68"/>
+      <c r="X72" s="68"/>
+      <c r="Y72" s="68"/>
+      <c r="Z72" s="68"/>
+      <c r="AA72" s="68"/>
+      <c r="AB72" s="68"/>
+      <c r="AC72" s="68"/>
+      <c r="AD72" s="68"/>
+      <c r="AE72" s="68"/>
+      <c r="AF72" s="68"/>
+      <c r="AG72" s="68"/>
+    </row>
+    <row r="73" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
-      <c r="V73" s="44"/>
-      <c r="W73" s="44"/>
-      <c r="X73" s="44"/>
-      <c r="Y73" s="44"/>
-      <c r="Z73" s="44"/>
-      <c r="AA73" s="44"/>
-      <c r="AB73" s="44"/>
-      <c r="AC73" s="44"/>
-      <c r="AD73" s="44"/>
-      <c r="AE73" s="44"/>
-      <c r="AF73" s="44"/>
-      <c r="AG73" s="44"/>
-    </row>
-    <row r="74" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="44" t="s">
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+      <c r="P73" s="66"/>
+      <c r="Q73" s="66"/>
+      <c r="R73" s="66"/>
+      <c r="S73" s="66"/>
+      <c r="T73" s="66"/>
+      <c r="U73" s="66"/>
+      <c r="V73" s="66"/>
+      <c r="W73" s="66"/>
+      <c r="X73" s="66"/>
+      <c r="Y73" s="66"/>
+      <c r="Z73" s="66"/>
+      <c r="AA73" s="66"/>
+      <c r="AB73" s="66"/>
+      <c r="AC73" s="66"/>
+      <c r="AD73" s="66"/>
+      <c r="AE73" s="66"/>
+      <c r="AF73" s="66"/>
+      <c r="AG73" s="66"/>
+    </row>
+    <row r="74" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="44"/>
-      <c r="S74" s="44"/>
-      <c r="T74" s="44"/>
-      <c r="U74" s="44"/>
-      <c r="V74" s="44"/>
-      <c r="W74" s="44"/>
-      <c r="X74" s="44"/>
-      <c r="Y74" s="44"/>
-      <c r="Z74" s="44"/>
-      <c r="AA74" s="44"/>
-      <c r="AB74" s="44"/>
-      <c r="AC74" s="44"/>
-      <c r="AD74" s="44"/>
-      <c r="AE74" s="44"/>
-      <c r="AF74" s="44"/>
-      <c r="AG74" s="44"/>
-    </row>
-    <row r="75" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="44" t="s">
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+      <c r="P74" s="66"/>
+      <c r="Q74" s="66"/>
+      <c r="R74" s="66"/>
+      <c r="S74" s="66"/>
+      <c r="T74" s="66"/>
+      <c r="U74" s="66"/>
+      <c r="V74" s="66"/>
+      <c r="W74" s="66"/>
+      <c r="X74" s="66"/>
+      <c r="Y74" s="66"/>
+      <c r="Z74" s="66"/>
+      <c r="AA74" s="66"/>
+      <c r="AB74" s="66"/>
+      <c r="AC74" s="66"/>
+      <c r="AD74" s="66"/>
+      <c r="AE74" s="66"/>
+      <c r="AF74" s="66"/>
+      <c r="AG74" s="66"/>
+    </row>
+    <row r="75" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="M75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="44"/>
-      <c r="S75" s="44"/>
-      <c r="T75" s="44"/>
-      <c r="U75" s="44"/>
-      <c r="V75" s="44"/>
-      <c r="W75" s="44"/>
-      <c r="X75" s="44"/>
-      <c r="Y75" s="44"/>
-      <c r="Z75" s="44"/>
-      <c r="AA75" s="44"/>
-      <c r="AB75" s="44"/>
-      <c r="AC75" s="44"/>
-      <c r="AD75" s="44"/>
-      <c r="AE75" s="44"/>
-      <c r="AF75" s="44"/>
-      <c r="AG75" s="44"/>
-    </row>
-    <row r="76" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="43" t="s">
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+      <c r="P75" s="66"/>
+      <c r="Q75" s="66"/>
+      <c r="R75" s="66"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="66"/>
+      <c r="U75" s="66"/>
+      <c r="V75" s="66"/>
+      <c r="W75" s="66"/>
+      <c r="X75" s="66"/>
+      <c r="Y75" s="66"/>
+      <c r="Z75" s="66"/>
+      <c r="AA75" s="66"/>
+      <c r="AB75" s="66"/>
+      <c r="AC75" s="66"/>
+      <c r="AD75" s="66"/>
+      <c r="AE75" s="66"/>
+      <c r="AF75" s="66"/>
+      <c r="AG75" s="66"/>
+    </row>
+    <row r="76" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
-      <c r="AA76" s="43"/>
-      <c r="AB76" s="43"/>
-      <c r="AC76" s="43"/>
-      <c r="AD76" s="43"/>
-      <c r="AE76" s="43"/>
-      <c r="AF76" s="43"/>
-      <c r="AG76" s="43"/>
-    </row>
-    <row r="77" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="44" t="s">
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="67"/>
+      <c r="O76" s="67"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="67"/>
+      <c r="R76" s="67"/>
+      <c r="S76" s="67"/>
+      <c r="T76" s="67"/>
+      <c r="U76" s="67"/>
+      <c r="V76" s="67"/>
+      <c r="W76" s="67"/>
+      <c r="X76" s="67"/>
+      <c r="Y76" s="67"/>
+      <c r="Z76" s="67"/>
+      <c r="AA76" s="67"/>
+      <c r="AB76" s="67"/>
+      <c r="AC76" s="67"/>
+      <c r="AD76" s="67"/>
+      <c r="AE76" s="67"/>
+      <c r="AF76" s="67"/>
+      <c r="AG76" s="67"/>
+    </row>
+    <row r="77" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="44"/>
-      <c r="S77" s="44"/>
-      <c r="T77" s="44"/>
-      <c r="U77" s="44"/>
-      <c r="V77" s="44"/>
-      <c r="W77" s="44"/>
-      <c r="X77" s="44"/>
-      <c r="Y77" s="44"/>
-      <c r="Z77" s="44"/>
-      <c r="AA77" s="44"/>
-      <c r="AB77" s="44"/>
-      <c r="AC77" s="44"/>
-      <c r="AD77" s="44"/>
-      <c r="AE77" s="44"/>
-      <c r="AF77" s="44"/>
-      <c r="AG77" s="44"/>
-    </row>
-    <row r="78" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="44" t="s">
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="66"/>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="66"/>
+      <c r="R77" s="66"/>
+      <c r="S77" s="66"/>
+      <c r="T77" s="66"/>
+      <c r="U77" s="66"/>
+      <c r="V77" s="66"/>
+      <c r="W77" s="66"/>
+      <c r="X77" s="66"/>
+      <c r="Y77" s="66"/>
+      <c r="Z77" s="66"/>
+      <c r="AA77" s="66"/>
+      <c r="AB77" s="66"/>
+      <c r="AC77" s="66"/>
+      <c r="AD77" s="66"/>
+      <c r="AE77" s="66"/>
+      <c r="AF77" s="66"/>
+      <c r="AG77" s="66"/>
+    </row>
+    <row r="78" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="44"/>
-      <c r="S78" s="44"/>
-      <c r="T78" s="44"/>
-      <c r="U78" s="44"/>
-      <c r="V78" s="44"/>
-      <c r="W78" s="44"/>
-      <c r="X78" s="44"/>
-      <c r="Y78" s="44"/>
-      <c r="Z78" s="44"/>
-      <c r="AA78" s="44"/>
-      <c r="AB78" s="44"/>
-      <c r="AC78" s="44"/>
-      <c r="AD78" s="44"/>
-      <c r="AE78" s="44"/>
-      <c r="AF78" s="44"/>
-      <c r="AG78" s="44"/>
-    </row>
-    <row r="79" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="44" t="s">
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+      <c r="R78" s="66"/>
+      <c r="S78" s="66"/>
+      <c r="T78" s="66"/>
+      <c r="U78" s="66"/>
+      <c r="V78" s="66"/>
+      <c r="W78" s="66"/>
+      <c r="X78" s="66"/>
+      <c r="Y78" s="66"/>
+      <c r="Z78" s="66"/>
+      <c r="AA78" s="66"/>
+      <c r="AB78" s="66"/>
+      <c r="AC78" s="66"/>
+      <c r="AD78" s="66"/>
+      <c r="AE78" s="66"/>
+      <c r="AF78" s="66"/>
+      <c r="AG78" s="66"/>
+    </row>
+    <row r="79" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="44"/>
-      <c r="S79" s="44"/>
-      <c r="T79" s="44"/>
-      <c r="U79" s="44"/>
-      <c r="V79" s="44"/>
-      <c r="W79" s="44"/>
-      <c r="X79" s="44"/>
-      <c r="Y79" s="44"/>
-      <c r="Z79" s="44"/>
-      <c r="AA79" s="44"/>
-      <c r="AB79" s="44"/>
-      <c r="AC79" s="44"/>
-      <c r="AD79" s="44"/>
-      <c r="AE79" s="44"/>
-      <c r="AF79" s="44"/>
-      <c r="AG79" s="44"/>
-    </row>
-    <row r="80" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="43" t="s">
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="66"/>
+      <c r="Q79" s="66"/>
+      <c r="R79" s="66"/>
+      <c r="S79" s="66"/>
+      <c r="T79" s="66"/>
+      <c r="U79" s="66"/>
+      <c r="V79" s="66"/>
+      <c r="W79" s="66"/>
+      <c r="X79" s="66"/>
+      <c r="Y79" s="66"/>
+      <c r="Z79" s="66"/>
+      <c r="AA79" s="66"/>
+      <c r="AB79" s="66"/>
+      <c r="AC79" s="66"/>
+      <c r="AD79" s="66"/>
+      <c r="AE79" s="66"/>
+      <c r="AF79" s="66"/>
+      <c r="AG79" s="66"/>
+    </row>
+    <row r="80" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="43"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
-      <c r="AF80" s="43"/>
-      <c r="AG80" s="43"/>
-    </row>
-    <row r="81" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="42" t="s">
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
+      <c r="U80" s="67"/>
+      <c r="V80" s="67"/>
+      <c r="W80" s="67"/>
+      <c r="X80" s="67"/>
+      <c r="Y80" s="67"/>
+      <c r="Z80" s="67"/>
+      <c r="AA80" s="67"/>
+      <c r="AB80" s="67"/>
+      <c r="AC80" s="67"/>
+      <c r="AD80" s="67"/>
+      <c r="AE80" s="67"/>
+      <c r="AF80" s="67"/>
+      <c r="AG80" s="67"/>
+    </row>
+    <row r="81" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="42"/>
-      <c r="S81" s="42"/>
-      <c r="T81" s="42"/>
-      <c r="U81" s="42"/>
-      <c r="V81" s="42"/>
-      <c r="W81" s="42"/>
-      <c r="X81" s="42"/>
-      <c r="Y81" s="42"/>
-      <c r="Z81" s="42"/>
-      <c r="AA81" s="42"/>
-      <c r="AB81" s="42"/>
-      <c r="AC81" s="42"/>
-      <c r="AD81" s="42"/>
-      <c r="AE81" s="42"/>
-      <c r="AF81" s="42"/>
-      <c r="AG81" s="42"/>
-    </row>
-    <row r="82" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="44" t="s">
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
+      <c r="H81" s="68"/>
+      <c r="I81" s="68"/>
+      <c r="J81" s="68"/>
+      <c r="K81" s="68"/>
+      <c r="L81" s="68"/>
+      <c r="M81" s="68"/>
+      <c r="N81" s="68"/>
+      <c r="O81" s="68"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="68"/>
+      <c r="R81" s="68"/>
+      <c r="S81" s="68"/>
+      <c r="T81" s="68"/>
+      <c r="U81" s="68"/>
+      <c r="V81" s="68"/>
+      <c r="W81" s="68"/>
+      <c r="X81" s="68"/>
+      <c r="Y81" s="68"/>
+      <c r="Z81" s="68"/>
+      <c r="AA81" s="68"/>
+      <c r="AB81" s="68"/>
+      <c r="AC81" s="68"/>
+      <c r="AD81" s="68"/>
+      <c r="AE81" s="68"/>
+      <c r="AF81" s="68"/>
+      <c r="AG81" s="68"/>
+    </row>
+    <row r="82" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="44"/>
-      <c r="L82" s="44"/>
-      <c r="M82" s="44"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44"/>
-      <c r="S82" s="44"/>
-      <c r="T82" s="44"/>
-      <c r="U82" s="44"/>
-      <c r="V82" s="44"/>
-      <c r="W82" s="44"/>
-      <c r="X82" s="44"/>
-      <c r="Y82" s="44"/>
-      <c r="Z82" s="44"/>
-      <c r="AA82" s="44"/>
-      <c r="AB82" s="44"/>
-      <c r="AC82" s="44"/>
-      <c r="AD82" s="44"/>
-      <c r="AE82" s="44"/>
-      <c r="AF82" s="44"/>
-      <c r="AG82" s="44"/>
-    </row>
-    <row r="83" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="44" t="s">
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
+      <c r="P82" s="66"/>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="66"/>
+      <c r="S82" s="66"/>
+      <c r="T82" s="66"/>
+      <c r="U82" s="66"/>
+      <c r="V82" s="66"/>
+      <c r="W82" s="66"/>
+      <c r="X82" s="66"/>
+      <c r="Y82" s="66"/>
+      <c r="Z82" s="66"/>
+      <c r="AA82" s="66"/>
+      <c r="AB82" s="66"/>
+      <c r="AC82" s="66"/>
+      <c r="AD82" s="66"/>
+      <c r="AE82" s="66"/>
+      <c r="AF82" s="66"/>
+      <c r="AG82" s="66"/>
+    </row>
+    <row r="83" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="44"/>
-      <c r="T83" s="44"/>
-      <c r="U83" s="44"/>
-      <c r="V83" s="44"/>
-      <c r="W83" s="44"/>
-      <c r="X83" s="44"/>
-      <c r="Y83" s="44"/>
-      <c r="Z83" s="44"/>
-      <c r="AA83" s="44"/>
-      <c r="AB83" s="44"/>
-      <c r="AC83" s="44"/>
-      <c r="AD83" s="44"/>
-      <c r="AE83" s="44"/>
-      <c r="AF83" s="44"/>
-      <c r="AG83" s="44"/>
-    </row>
-    <row r="84" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="42" t="s">
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+      <c r="P83" s="66"/>
+      <c r="Q83" s="66"/>
+      <c r="R83" s="66"/>
+      <c r="S83" s="66"/>
+      <c r="T83" s="66"/>
+      <c r="U83" s="66"/>
+      <c r="V83" s="66"/>
+      <c r="W83" s="66"/>
+      <c r="X83" s="66"/>
+      <c r="Y83" s="66"/>
+      <c r="Z83" s="66"/>
+      <c r="AA83" s="66"/>
+      <c r="AB83" s="66"/>
+      <c r="AC83" s="66"/>
+      <c r="AD83" s="66"/>
+      <c r="AE83" s="66"/>
+      <c r="AF83" s="66"/>
+      <c r="AG83" s="66"/>
+    </row>
+    <row r="84" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="42"/>
-      <c r="T84" s="42"/>
-      <c r="U84" s="42"/>
-      <c r="V84" s="42"/>
-      <c r="W84" s="42"/>
-      <c r="X84" s="42"/>
-      <c r="Y84" s="42"/>
-      <c r="Z84" s="42"/>
-      <c r="AA84" s="42"/>
-      <c r="AB84" s="42"/>
-      <c r="AC84" s="42"/>
-      <c r="AD84" s="42"/>
-      <c r="AE84" s="42"/>
-      <c r="AF84" s="42"/>
-      <c r="AG84" s="42"/>
-    </row>
-    <row r="85" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="44" t="s">
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
+      <c r="T84" s="68"/>
+      <c r="U84" s="68"/>
+      <c r="V84" s="68"/>
+      <c r="W84" s="68"/>
+      <c r="X84" s="68"/>
+      <c r="Y84" s="68"/>
+      <c r="Z84" s="68"/>
+      <c r="AA84" s="68"/>
+      <c r="AB84" s="68"/>
+      <c r="AC84" s="68"/>
+      <c r="AD84" s="68"/>
+      <c r="AE84" s="68"/>
+      <c r="AF84" s="68"/>
+      <c r="AG84" s="68"/>
+    </row>
+    <row r="85" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="44"/>
-      <c r="S85" s="44"/>
-      <c r="T85" s="44"/>
-      <c r="U85" s="44"/>
-      <c r="V85" s="44"/>
-      <c r="W85" s="44"/>
-      <c r="X85" s="44"/>
-      <c r="Y85" s="44"/>
-      <c r="Z85" s="44"/>
-      <c r="AA85" s="44"/>
-      <c r="AB85" s="44"/>
-      <c r="AC85" s="44"/>
-      <c r="AD85" s="44"/>
-      <c r="AE85" s="44"/>
-      <c r="AF85" s="44"/>
-      <c r="AG85" s="44"/>
-    </row>
-    <row r="86" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="44" t="s">
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="66"/>
+      <c r="M85" s="66"/>
+      <c r="N85" s="66"/>
+      <c r="O85" s="66"/>
+      <c r="P85" s="66"/>
+      <c r="Q85" s="66"/>
+      <c r="R85" s="66"/>
+      <c r="S85" s="66"/>
+      <c r="T85" s="66"/>
+      <c r="U85" s="66"/>
+      <c r="V85" s="66"/>
+      <c r="W85" s="66"/>
+      <c r="X85" s="66"/>
+      <c r="Y85" s="66"/>
+      <c r="Z85" s="66"/>
+      <c r="AA85" s="66"/>
+      <c r="AB85" s="66"/>
+      <c r="AC85" s="66"/>
+      <c r="AD85" s="66"/>
+      <c r="AE85" s="66"/>
+      <c r="AF85" s="66"/>
+      <c r="AG85" s="66"/>
+    </row>
+    <row r="86" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="44"/>
-      <c r="S86" s="44"/>
-      <c r="T86" s="44"/>
-      <c r="U86" s="44"/>
-      <c r="V86" s="44"/>
-      <c r="W86" s="44"/>
-      <c r="X86" s="44"/>
-      <c r="Y86" s="44"/>
-      <c r="Z86" s="44"/>
-      <c r="AA86" s="44"/>
-      <c r="AB86" s="44"/>
-      <c r="AC86" s="44"/>
-      <c r="AD86" s="44"/>
-      <c r="AE86" s="44"/>
-      <c r="AF86" s="44"/>
-      <c r="AG86" s="44"/>
-    </row>
-    <row r="87" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="44" t="s">
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="66"/>
+      <c r="P86" s="66"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="66"/>
+      <c r="S86" s="66"/>
+      <c r="T86" s="66"/>
+      <c r="U86" s="66"/>
+      <c r="V86" s="66"/>
+      <c r="W86" s="66"/>
+      <c r="X86" s="66"/>
+      <c r="Y86" s="66"/>
+      <c r="Z86" s="66"/>
+      <c r="AA86" s="66"/>
+      <c r="AB86" s="66"/>
+      <c r="AC86" s="66"/>
+      <c r="AD86" s="66"/>
+      <c r="AE86" s="66"/>
+      <c r="AF86" s="66"/>
+      <c r="AG86" s="66"/>
+    </row>
+    <row r="87" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="44"/>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="44"/>
-      <c r="AA87" s="44"/>
-      <c r="AB87" s="44"/>
-      <c r="AC87" s="44"/>
-      <c r="AD87" s="44"/>
-      <c r="AE87" s="44"/>
-      <c r="AF87" s="44"/>
-      <c r="AG87" s="44"/>
-    </row>
-    <row r="88" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="43" t="s">
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+      <c r="P87" s="66"/>
+      <c r="Q87" s="66"/>
+      <c r="R87" s="66"/>
+      <c r="S87" s="66"/>
+      <c r="T87" s="66"/>
+      <c r="U87" s="66"/>
+      <c r="V87" s="66"/>
+      <c r="W87" s="66"/>
+      <c r="X87" s="66"/>
+      <c r="Y87" s="66"/>
+      <c r="Z87" s="66"/>
+      <c r="AA87" s="66"/>
+      <c r="AB87" s="66"/>
+      <c r="AC87" s="66"/>
+      <c r="AD87" s="66"/>
+      <c r="AE87" s="66"/>
+      <c r="AF87" s="66"/>
+      <c r="AG87" s="66"/>
+    </row>
+    <row r="88" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="43"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="43"/>
-      <c r="W88" s="43"/>
-      <c r="X88" s="43"/>
-      <c r="Y88" s="43"/>
-      <c r="Z88" s="43"/>
-      <c r="AA88" s="43"/>
-      <c r="AB88" s="43"/>
-      <c r="AC88" s="43"/>
-      <c r="AD88" s="43"/>
-      <c r="AE88" s="43"/>
-      <c r="AF88" s="43"/>
-      <c r="AG88" s="43"/>
-    </row>
-    <row r="89" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="44" t="s">
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
+      <c r="H88" s="67"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="67"/>
+      <c r="Q88" s="67"/>
+      <c r="R88" s="67"/>
+      <c r="S88" s="67"/>
+      <c r="T88" s="67"/>
+      <c r="U88" s="67"/>
+      <c r="V88" s="67"/>
+      <c r="W88" s="67"/>
+      <c r="X88" s="67"/>
+      <c r="Y88" s="67"/>
+      <c r="Z88" s="67"/>
+      <c r="AA88" s="67"/>
+      <c r="AB88" s="67"/>
+      <c r="AC88" s="67"/>
+      <c r="AD88" s="67"/>
+      <c r="AE88" s="67"/>
+      <c r="AF88" s="67"/>
+      <c r="AG88" s="67"/>
+    </row>
+    <row r="89" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
-      <c r="K89" s="44"/>
-      <c r="L89" s="44"/>
-      <c r="M89" s="44"/>
-      <c r="N89" s="44"/>
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="44"/>
-      <c r="S89" s="44"/>
-      <c r="T89" s="44"/>
-      <c r="U89" s="44"/>
-      <c r="V89" s="44"/>
-      <c r="W89" s="44"/>
-      <c r="X89" s="44"/>
-      <c r="Y89" s="44"/>
-      <c r="Z89" s="44"/>
-      <c r="AA89" s="44"/>
-      <c r="AB89" s="44"/>
-      <c r="AC89" s="44"/>
-      <c r="AD89" s="44"/>
-      <c r="AE89" s="44"/>
-      <c r="AF89" s="44"/>
-      <c r="AG89" s="44"/>
-    </row>
-    <row r="90" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="44" t="s">
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="66"/>
+      <c r="M89" s="66"/>
+      <c r="N89" s="66"/>
+      <c r="O89" s="66"/>
+      <c r="P89" s="66"/>
+      <c r="Q89" s="66"/>
+      <c r="R89" s="66"/>
+      <c r="S89" s="66"/>
+      <c r="T89" s="66"/>
+      <c r="U89" s="66"/>
+      <c r="V89" s="66"/>
+      <c r="W89" s="66"/>
+      <c r="X89" s="66"/>
+      <c r="Y89" s="66"/>
+      <c r="Z89" s="66"/>
+      <c r="AA89" s="66"/>
+      <c r="AB89" s="66"/>
+      <c r="AC89" s="66"/>
+      <c r="AD89" s="66"/>
+      <c r="AE89" s="66"/>
+      <c r="AF89" s="66"/>
+      <c r="AG89" s="66"/>
+    </row>
+    <row r="90" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
-      <c r="K90" s="44"/>
-      <c r="L90" s="44"/>
-      <c r="M90" s="44"/>
-      <c r="N90" s="44"/>
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="44"/>
-      <c r="S90" s="44"/>
-      <c r="T90" s="44"/>
-      <c r="U90" s="44"/>
-      <c r="V90" s="44"/>
-      <c r="W90" s="44"/>
-      <c r="X90" s="44"/>
-      <c r="Y90" s="44"/>
-      <c r="Z90" s="44"/>
-      <c r="AA90" s="44"/>
-      <c r="AB90" s="44"/>
-      <c r="AC90" s="44"/>
-      <c r="AD90" s="44"/>
-      <c r="AE90" s="44"/>
-      <c r="AF90" s="44"/>
-      <c r="AG90" s="44"/>
-    </row>
-    <row r="91" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="43" t="s">
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+      <c r="M90" s="66"/>
+      <c r="N90" s="66"/>
+      <c r="O90" s="66"/>
+      <c r="P90" s="66"/>
+      <c r="Q90" s="66"/>
+      <c r="R90" s="66"/>
+      <c r="S90" s="66"/>
+      <c r="T90" s="66"/>
+      <c r="U90" s="66"/>
+      <c r="V90" s="66"/>
+      <c r="W90" s="66"/>
+      <c r="X90" s="66"/>
+      <c r="Y90" s="66"/>
+      <c r="Z90" s="66"/>
+      <c r="AA90" s="66"/>
+      <c r="AB90" s="66"/>
+      <c r="AC90" s="66"/>
+      <c r="AD90" s="66"/>
+      <c r="AE90" s="66"/>
+      <c r="AF90" s="66"/>
+      <c r="AG90" s="66"/>
+    </row>
+    <row r="91" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="43"/>
-      <c r="R91" s="43"/>
-      <c r="S91" s="43"/>
-      <c r="T91" s="43"/>
-      <c r="U91" s="43"/>
-      <c r="V91" s="43"/>
-      <c r="W91" s="43"/>
-      <c r="X91" s="43"/>
-      <c r="Y91" s="43"/>
-      <c r="Z91" s="43"/>
-      <c r="AA91" s="43"/>
-      <c r="AB91" s="43"/>
-      <c r="AC91" s="43"/>
-      <c r="AD91" s="43"/>
-      <c r="AE91" s="43"/>
-      <c r="AF91" s="43"/>
-      <c r="AG91" s="43"/>
-    </row>
-    <row r="92" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="42" t="s">
+      <c r="B91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="67"/>
+      <c r="J91" s="67"/>
+      <c r="K91" s="67"/>
+      <c r="L91" s="67"/>
+      <c r="M91" s="67"/>
+      <c r="N91" s="67"/>
+      <c r="O91" s="67"/>
+      <c r="P91" s="67"/>
+      <c r="Q91" s="67"/>
+      <c r="R91" s="67"/>
+      <c r="S91" s="67"/>
+      <c r="T91" s="67"/>
+      <c r="U91" s="67"/>
+      <c r="V91" s="67"/>
+      <c r="W91" s="67"/>
+      <c r="X91" s="67"/>
+      <c r="Y91" s="67"/>
+      <c r="Z91" s="67"/>
+      <c r="AA91" s="67"/>
+      <c r="AB91" s="67"/>
+      <c r="AC91" s="67"/>
+      <c r="AD91" s="67"/>
+      <c r="AE91" s="67"/>
+      <c r="AF91" s="67"/>
+      <c r="AG91" s="67"/>
+    </row>
+    <row r="92" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
-      <c r="M92" s="42"/>
-      <c r="N92" s="42"/>
-      <c r="O92" s="42"/>
-      <c r="P92" s="42"/>
-      <c r="Q92" s="42"/>
-      <c r="R92" s="42"/>
-      <c r="S92" s="42"/>
-      <c r="T92" s="42"/>
-      <c r="U92" s="42"/>
-      <c r="V92" s="42"/>
-      <c r="W92" s="42"/>
-      <c r="X92" s="42"/>
-      <c r="Y92" s="42"/>
-      <c r="Z92" s="42"/>
-      <c r="AA92" s="42"/>
-      <c r="AB92" s="42"/>
-      <c r="AC92" s="42"/>
-      <c r="AD92" s="42"/>
-      <c r="AE92" s="42"/>
-      <c r="AF92" s="42"/>
-      <c r="AG92" s="42"/>
-    </row>
-    <row r="93" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="44" t="s">
+      <c r="B92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="G92" s="68"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="68"/>
+      <c r="M92" s="68"/>
+      <c r="N92" s="68"/>
+      <c r="O92" s="68"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="68"/>
+      <c r="R92" s="68"/>
+      <c r="S92" s="68"/>
+      <c r="T92" s="68"/>
+      <c r="U92" s="68"/>
+      <c r="V92" s="68"/>
+      <c r="W92" s="68"/>
+      <c r="X92" s="68"/>
+      <c r="Y92" s="68"/>
+      <c r="Z92" s="68"/>
+      <c r="AA92" s="68"/>
+      <c r="AB92" s="68"/>
+      <c r="AC92" s="68"/>
+      <c r="AD92" s="68"/>
+      <c r="AE92" s="68"/>
+      <c r="AF92" s="68"/>
+      <c r="AG92" s="68"/>
+    </row>
+    <row r="93" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="44"/>
-      <c r="S93" s="44"/>
-      <c r="T93" s="44"/>
-      <c r="U93" s="44"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="44"/>
-      <c r="X93" s="44"/>
-      <c r="Y93" s="44"/>
-      <c r="Z93" s="44"/>
-      <c r="AA93" s="44"/>
-      <c r="AB93" s="44"/>
-      <c r="AC93" s="44"/>
-      <c r="AD93" s="44"/>
-      <c r="AE93" s="44"/>
-      <c r="AF93" s="44"/>
-      <c r="AG93" s="44"/>
-    </row>
-    <row r="94" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="56" t="s">
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
+      <c r="L93" s="66"/>
+      <c r="M93" s="66"/>
+      <c r="N93" s="66"/>
+      <c r="O93" s="66"/>
+      <c r="P93" s="66"/>
+      <c r="Q93" s="66"/>
+      <c r="R93" s="66"/>
+      <c r="S93" s="66"/>
+      <c r="T93" s="66"/>
+      <c r="U93" s="66"/>
+      <c r="V93" s="66"/>
+      <c r="W93" s="66"/>
+      <c r="X93" s="66"/>
+      <c r="Y93" s="66"/>
+      <c r="Z93" s="66"/>
+      <c r="AA93" s="66"/>
+      <c r="AB93" s="66"/>
+      <c r="AC93" s="66"/>
+      <c r="AD93" s="66"/>
+      <c r="AE93" s="66"/>
+      <c r="AF93" s="66"/>
+      <c r="AG93" s="66"/>
+    </row>
+    <row r="94" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="56"/>
-      <c r="P94" s="56"/>
-      <c r="Q94" s="56"/>
-      <c r="R94" s="56"/>
-      <c r="S94" s="56"/>
-      <c r="T94" s="56"/>
-      <c r="U94" s="56"/>
-      <c r="V94" s="56"/>
-      <c r="W94" s="56"/>
-      <c r="X94" s="56"/>
-      <c r="Y94" s="56"/>
-      <c r="Z94" s="56"/>
-      <c r="AA94" s="56"/>
-      <c r="AB94" s="56"/>
-      <c r="AC94" s="56"/>
-      <c r="AD94" s="56"/>
-      <c r="AE94" s="56"/>
-      <c r="AF94" s="56"/>
-      <c r="AG94" s="56"/>
-    </row>
-    <row r="95" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="44" t="s">
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="69"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="69"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="69"/>
+      <c r="O94" s="69"/>
+      <c r="P94" s="69"/>
+      <c r="Q94" s="69"/>
+      <c r="R94" s="69"/>
+      <c r="S94" s="69"/>
+      <c r="T94" s="69"/>
+      <c r="U94" s="69"/>
+      <c r="V94" s="69"/>
+      <c r="W94" s="69"/>
+      <c r="X94" s="69"/>
+      <c r="Y94" s="69"/>
+      <c r="Z94" s="69"/>
+      <c r="AA94" s="69"/>
+      <c r="AB94" s="69"/>
+      <c r="AC94" s="69"/>
+      <c r="AD94" s="69"/>
+      <c r="AE94" s="69"/>
+      <c r="AF94" s="69"/>
+      <c r="AG94" s="69"/>
+    </row>
+    <row r="95" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="44"/>
-      <c r="S95" s="44"/>
-      <c r="T95" s="44"/>
-      <c r="U95" s="44"/>
-      <c r="V95" s="44"/>
-      <c r="W95" s="44"/>
-      <c r="X95" s="44"/>
-      <c r="Y95" s="44"/>
-      <c r="Z95" s="44"/>
-      <c r="AA95" s="44"/>
-      <c r="AB95" s="44"/>
-      <c r="AC95" s="44"/>
-      <c r="AD95" s="44"/>
-      <c r="AE95" s="44"/>
-      <c r="AF95" s="44"/>
-      <c r="AG95" s="44"/>
-    </row>
-    <row r="96" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="53" t="s">
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="66"/>
+      <c r="M95" s="66"/>
+      <c r="N95" s="66"/>
+      <c r="O95" s="66"/>
+      <c r="P95" s="66"/>
+      <c r="Q95" s="66"/>
+      <c r="R95" s="66"/>
+      <c r="S95" s="66"/>
+      <c r="T95" s="66"/>
+      <c r="U95" s="66"/>
+      <c r="V95" s="66"/>
+      <c r="W95" s="66"/>
+      <c r="X95" s="66"/>
+      <c r="Y95" s="66"/>
+      <c r="Z95" s="66"/>
+      <c r="AA95" s="66"/>
+      <c r="AB95" s="66"/>
+      <c r="AC95" s="66"/>
+      <c r="AD95" s="66"/>
+      <c r="AE95" s="66"/>
+      <c r="AF95" s="66"/>
+      <c r="AG95" s="66"/>
+    </row>
+    <row r="96" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
-      <c r="P96" s="53"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="53"/>
-      <c r="S96" s="53"/>
-      <c r="T96" s="53"/>
-      <c r="U96" s="53"/>
-      <c r="V96" s="53"/>
-      <c r="W96" s="53"/>
-      <c r="X96" s="53"/>
-      <c r="Y96" s="53"/>
-      <c r="Z96" s="53"/>
-      <c r="AA96" s="53"/>
-      <c r="AB96" s="53"/>
-      <c r="AC96" s="53"/>
-      <c r="AD96" s="53"/>
-      <c r="AE96" s="53"/>
-      <c r="AF96" s="53"/>
-      <c r="AG96" s="53"/>
-    </row>
-    <row r="97" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="43" t="s">
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="70"/>
+      <c r="M96" s="70"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="70"/>
+      <c r="R96" s="70"/>
+      <c r="S96" s="70"/>
+      <c r="T96" s="70"/>
+      <c r="U96" s="70"/>
+      <c r="V96" s="70"/>
+      <c r="W96" s="70"/>
+      <c r="X96" s="70"/>
+      <c r="Y96" s="70"/>
+      <c r="Z96" s="70"/>
+      <c r="AA96" s="70"/>
+      <c r="AB96" s="70"/>
+      <c r="AC96" s="70"/>
+      <c r="AD96" s="70"/>
+      <c r="AE96" s="70"/>
+      <c r="AF96" s="70"/>
+      <c r="AG96" s="70"/>
+    </row>
+    <row r="97" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="43"/>
-      <c r="S97" s="43"/>
-      <c r="T97" s="43"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="43"/>
-      <c r="Y97" s="43"/>
-      <c r="Z97" s="43"/>
-      <c r="AA97" s="43"/>
-      <c r="AB97" s="43"/>
-      <c r="AC97" s="43"/>
-      <c r="AD97" s="43"/>
-      <c r="AE97" s="43"/>
-      <c r="AF97" s="43"/>
-      <c r="AG97" s="43"/>
-    </row>
-    <row r="98" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="42" t="s">
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="67"/>
+      <c r="G97" s="67"/>
+      <c r="H97" s="67"/>
+      <c r="I97" s="67"/>
+      <c r="J97" s="67"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="67"/>
+      <c r="N97" s="67"/>
+      <c r="O97" s="67"/>
+      <c r="P97" s="67"/>
+      <c r="Q97" s="67"/>
+      <c r="R97" s="67"/>
+      <c r="S97" s="67"/>
+      <c r="T97" s="67"/>
+      <c r="U97" s="67"/>
+      <c r="V97" s="67"/>
+      <c r="W97" s="67"/>
+      <c r="X97" s="67"/>
+      <c r="Y97" s="67"/>
+      <c r="Z97" s="67"/>
+      <c r="AA97" s="67"/>
+      <c r="AB97" s="67"/>
+      <c r="AC97" s="67"/>
+      <c r="AD97" s="67"/>
+      <c r="AE97" s="67"/>
+      <c r="AF97" s="67"/>
+      <c r="AG97" s="67"/>
+    </row>
+    <row r="98" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="42"/>
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
-      <c r="Q98" s="42"/>
-      <c r="R98" s="42"/>
-      <c r="S98" s="42"/>
-      <c r="T98" s="42"/>
-      <c r="U98" s="42"/>
-      <c r="V98" s="42"/>
-      <c r="W98" s="42"/>
-      <c r="X98" s="42"/>
-      <c r="Y98" s="42"/>
-      <c r="Z98" s="42"/>
-      <c r="AA98" s="42"/>
-      <c r="AB98" s="42"/>
-      <c r="AC98" s="42"/>
-      <c r="AD98" s="42"/>
-      <c r="AE98" s="42"/>
-      <c r="AF98" s="42"/>
-      <c r="AG98" s="42"/>
-    </row>
-    <row r="99" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="44" t="s">
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="68"/>
+      <c r="S98" s="68"/>
+      <c r="T98" s="68"/>
+      <c r="U98" s="68"/>
+      <c r="V98" s="68"/>
+      <c r="W98" s="68"/>
+      <c r="X98" s="68"/>
+      <c r="Y98" s="68"/>
+      <c r="Z98" s="68"/>
+      <c r="AA98" s="68"/>
+      <c r="AB98" s="68"/>
+      <c r="AC98" s="68"/>
+      <c r="AD98" s="68"/>
+      <c r="AE98" s="68"/>
+      <c r="AF98" s="68"/>
+      <c r="AG98" s="68"/>
+    </row>
+    <row r="99" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
-      <c r="K99" s="44"/>
-      <c r="L99" s="44"/>
-      <c r="M99" s="44"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="44"/>
-      <c r="T99" s="44"/>
-      <c r="U99" s="44"/>
-      <c r="V99" s="44"/>
-      <c r="W99" s="44"/>
-      <c r="X99" s="44"/>
-      <c r="Y99" s="44"/>
-      <c r="Z99" s="44"/>
-      <c r="AA99" s="44"/>
-      <c r="AB99" s="44"/>
-      <c r="AC99" s="44"/>
-      <c r="AD99" s="44"/>
-      <c r="AE99" s="44"/>
-      <c r="AF99" s="44"/>
-      <c r="AG99" s="44"/>
-    </row>
-    <row r="100" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="44" t="s">
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="66"/>
+      <c r="M99" s="66"/>
+      <c r="N99" s="66"/>
+      <c r="O99" s="66"/>
+      <c r="P99" s="66"/>
+      <c r="Q99" s="66"/>
+      <c r="R99" s="66"/>
+      <c r="S99" s="66"/>
+      <c r="T99" s="66"/>
+      <c r="U99" s="66"/>
+      <c r="V99" s="66"/>
+      <c r="W99" s="66"/>
+      <c r="X99" s="66"/>
+      <c r="Y99" s="66"/>
+      <c r="Z99" s="66"/>
+      <c r="AA99" s="66"/>
+      <c r="AB99" s="66"/>
+      <c r="AC99" s="66"/>
+      <c r="AD99" s="66"/>
+      <c r="AE99" s="66"/>
+      <c r="AF99" s="66"/>
+      <c r="AG99" s="66"/>
+    </row>
+    <row r="100" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="44"/>
-      <c r="L100" s="44"/>
-      <c r="M100" s="44"/>
-      <c r="N100" s="44"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="44"/>
-      <c r="S100" s="44"/>
-      <c r="T100" s="44"/>
-      <c r="U100" s="44"/>
-      <c r="V100" s="44"/>
-      <c r="W100" s="44"/>
-      <c r="X100" s="44"/>
-      <c r="Y100" s="44"/>
-      <c r="Z100" s="44"/>
-      <c r="AA100" s="44"/>
-      <c r="AB100" s="44"/>
-      <c r="AC100" s="44"/>
-      <c r="AD100" s="44"/>
-      <c r="AE100" s="44"/>
-      <c r="AF100" s="44"/>
-      <c r="AG100" s="44"/>
-    </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF101" s="67"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="66"/>
+      <c r="L100" s="66"/>
+      <c r="M100" s="66"/>
+      <c r="N100" s="66"/>
+      <c r="O100" s="66"/>
+      <c r="P100" s="66"/>
+      <c r="Q100" s="66"/>
+      <c r="R100" s="66"/>
+      <c r="S100" s="66"/>
+      <c r="T100" s="66"/>
+      <c r="U100" s="66"/>
+      <c r="V100" s="66"/>
+      <c r="W100" s="66"/>
+      <c r="X100" s="66"/>
+      <c r="Y100" s="66"/>
+      <c r="Z100" s="66"/>
+      <c r="AA100" s="66"/>
+      <c r="AB100" s="66"/>
+      <c r="AC100" s="66"/>
+      <c r="AD100" s="66"/>
+      <c r="AE100" s="66"/>
+      <c r="AF100" s="66"/>
+      <c r="AG100" s="66"/>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF101" s="43"/>
       <c r="AG101" s="12"/>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF102" s="67"/>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF102" s="43"/>
       <c r="AG102" s="12"/>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF103" s="67"/>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF103" s="43"/>
       <c r="AG103" s="12"/>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF104" s="67"/>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF104" s="43"/>
       <c r="AG104" s="12"/>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF105" s="67"/>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF105" s="43"/>
       <c r="AG105" s="12"/>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF106" s="67"/>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF106" s="43"/>
       <c r="AG106" s="12"/>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF107" s="67"/>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF107" s="43"/>
       <c r="AG107" s="12"/>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AF108" s="67"/>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AF108" s="43"/>
       <c r="AG108" s="12"/>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AB109" s="67"/>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AB109" s="43"/>
       <c r="AC109" s="12"/>
-      <c r="AD109" s="67"/>
+      <c r="AD109" s="43"/>
       <c r="AE109" s="12"/>
-      <c r="AF109" s="67"/>
+      <c r="AF109" s="43"/>
       <c r="AG109" s="12"/>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AB110" s="67"/>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AB110" s="43"/>
       <c r="AC110" s="12"/>
-      <c r="AD110" s="67"/>
+      <c r="AD110" s="43"/>
       <c r="AE110" s="12"/>
-      <c r="AF110" s="67"/>
+      <c r="AF110" s="43"/>
       <c r="AG110" s="12"/>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AB111" s="67"/>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AB111" s="43"/>
       <c r="AC111" s="12"/>
-      <c r="AD111" s="67"/>
+      <c r="AD111" s="43"/>
       <c r="AE111" s="12"/>
-      <c r="AF111" s="67"/>
+      <c r="AF111" s="43"/>
       <c r="AG111" s="12"/>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="AB112" s="67"/>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AB112" s="43"/>
       <c r="AC112" s="12"/>
-      <c r="AD112" s="67"/>
+      <c r="AD112" s="43"/>
       <c r="AE112" s="12"/>
-      <c r="AF112" s="67"/>
+      <c r="AF112" s="43"/>
       <c r="AG112" s="12"/>
     </row>
-    <row r="113" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
-      <c r="B113" s="70"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="12"/>
-      <c r="D113" s="70"/>
+      <c r="D113" s="46"/>
       <c r="E113" s="12"/>
-      <c r="F113" s="67"/>
+      <c r="F113" s="43"/>
       <c r="G113" s="12"/>
-      <c r="H113" s="67"/>
+      <c r="H113" s="43"/>
       <c r="I113" s="12"/>
-      <c r="J113" s="67"/>
+      <c r="J113" s="43"/>
       <c r="K113" s="12"/>
-      <c r="L113" s="67"/>
+      <c r="L113" s="43"/>
       <c r="M113" s="12"/>
-      <c r="N113" s="67"/>
+      <c r="N113" s="43"/>
       <c r="O113" s="12"/>
-      <c r="P113" s="67"/>
+      <c r="P113" s="43"/>
       <c r="Q113" s="12"/>
-      <c r="R113" s="67"/>
+      <c r="R113" s="43"/>
       <c r="S113" s="12"/>
-      <c r="T113" s="67"/>
+      <c r="T113" s="43"/>
       <c r="U113" s="12"/>
-      <c r="V113" s="67"/>
+      <c r="V113" s="43"/>
       <c r="W113" s="12"/>
-      <c r="X113" s="67"/>
+      <c r="X113" s="43"/>
       <c r="Y113" s="12"/>
-      <c r="Z113" s="67"/>
+      <c r="Z113" s="43"/>
       <c r="AA113" s="12"/>
-      <c r="AB113" s="67"/>
+      <c r="AB113" s="43"/>
       <c r="AC113" s="12"/>
-      <c r="AD113" s="67"/>
+      <c r="AD113" s="43"/>
       <c r="AE113" s="12"/>
-      <c r="AF113" s="67"/>
+      <c r="AF113" s="43"/>
       <c r="AG113" s="12"/>
     </row>
-    <row r="114" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
-      <c r="B114" s="70"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="12"/>
-      <c r="D114" s="70"/>
+      <c r="D114" s="46"/>
       <c r="E114" s="12"/>
-      <c r="F114" s="67"/>
+      <c r="F114" s="43"/>
       <c r="G114" s="12"/>
-      <c r="H114" s="67"/>
+      <c r="H114" s="43"/>
       <c r="I114" s="12"/>
-      <c r="J114" s="67"/>
+      <c r="J114" s="43"/>
       <c r="K114" s="12"/>
-      <c r="L114" s="67"/>
+      <c r="L114" s="43"/>
       <c r="M114" s="12"/>
-      <c r="N114" s="67"/>
+      <c r="N114" s="43"/>
       <c r="O114" s="12"/>
-      <c r="P114" s="67"/>
+      <c r="P114" s="43"/>
       <c r="Q114" s="12"/>
-      <c r="R114" s="67"/>
+      <c r="R114" s="43"/>
       <c r="S114" s="12"/>
-      <c r="T114" s="67"/>
+      <c r="T114" s="43"/>
       <c r="U114" s="12"/>
-      <c r="V114" s="67"/>
+      <c r="V114" s="43"/>
       <c r="W114" s="12"/>
-      <c r="X114" s="67"/>
+      <c r="X114" s="43"/>
       <c r="Y114" s="12"/>
-      <c r="Z114" s="67"/>
+      <c r="Z114" s="43"/>
       <c r="AA114" s="12"/>
-      <c r="AB114" s="67"/>
+      <c r="AB114" s="43"/>
       <c r="AC114" s="12"/>
-      <c r="AD114" s="67"/>
+      <c r="AD114" s="43"/>
       <c r="AE114" s="12"/>
-      <c r="AF114" s="67"/>
+      <c r="AF114" s="43"/>
       <c r="AG114" s="12"/>
     </row>
-    <row r="115" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
-      <c r="B115" s="70"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="12"/>
-      <c r="D115" s="70"/>
+      <c r="D115" s="46"/>
       <c r="E115" s="12"/>
-      <c r="F115" s="67"/>
+      <c r="F115" s="43"/>
       <c r="G115" s="12"/>
-      <c r="H115" s="67"/>
+      <c r="H115" s="43"/>
       <c r="I115" s="12"/>
-      <c r="J115" s="67"/>
+      <c r="J115" s="43"/>
       <c r="K115" s="12"/>
-      <c r="L115" s="67"/>
+      <c r="L115" s="43"/>
       <c r="M115" s="12"/>
-      <c r="N115" s="67"/>
+      <c r="N115" s="43"/>
       <c r="O115" s="12"/>
-      <c r="P115" s="67"/>
+      <c r="P115" s="43"/>
       <c r="Q115" s="12"/>
-      <c r="R115" s="67"/>
+      <c r="R115" s="43"/>
       <c r="S115" s="12"/>
-      <c r="T115" s="67"/>
+      <c r="T115" s="43"/>
       <c r="U115" s="12"/>
-      <c r="V115" s="67"/>
+      <c r="V115" s="43"/>
       <c r="W115" s="12"/>
-      <c r="X115" s="67"/>
+      <c r="X115" s="43"/>
       <c r="Y115" s="12"/>
-      <c r="Z115" s="67"/>
+      <c r="Z115" s="43"/>
       <c r="AA115" s="12"/>
-      <c r="AB115" s="67"/>
+      <c r="AB115" s="43"/>
       <c r="AC115" s="12"/>
-      <c r="AD115" s="67"/>
+      <c r="AD115" s="43"/>
       <c r="AE115" s="12"/>
-      <c r="AF115" s="67"/>
+      <c r="AF115" s="43"/>
       <c r="AG115" s="12"/>
     </row>
-    <row r="116" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
-      <c r="B116" s="70"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="12"/>
-      <c r="D116" s="70"/>
+      <c r="D116" s="46"/>
       <c r="E116" s="12"/>
-      <c r="F116" s="67"/>
+      <c r="F116" s="43"/>
       <c r="G116" s="12"/>
-      <c r="H116" s="67"/>
+      <c r="H116" s="43"/>
       <c r="I116" s="12"/>
-      <c r="J116" s="67"/>
+      <c r="J116" s="43"/>
       <c r="K116" s="12"/>
-      <c r="L116" s="67"/>
+      <c r="L116" s="43"/>
       <c r="M116" s="12"/>
-      <c r="N116" s="67"/>
+      <c r="N116" s="43"/>
       <c r="O116" s="12"/>
-      <c r="P116" s="67"/>
+      <c r="P116" s="43"/>
       <c r="Q116" s="12"/>
-      <c r="R116" s="67"/>
+      <c r="R116" s="43"/>
       <c r="S116" s="12"/>
-      <c r="T116" s="67"/>
+      <c r="T116" s="43"/>
       <c r="U116" s="12"/>
-      <c r="V116" s="67"/>
+      <c r="V116" s="43"/>
       <c r="W116" s="12"/>
-      <c r="X116" s="67"/>
+      <c r="X116" s="43"/>
       <c r="Y116" s="12"/>
-      <c r="Z116" s="67"/>
+      <c r="Z116" s="43"/>
       <c r="AA116" s="12"/>
-      <c r="AB116" s="67"/>
+      <c r="AB116" s="43"/>
       <c r="AC116" s="12"/>
-      <c r="AD116" s="67"/>
+      <c r="AD116" s="43"/>
       <c r="AE116" s="12"/>
-      <c r="AF116" s="67"/>
+      <c r="AF116" s="43"/>
       <c r="AG116" s="12"/>
     </row>
-    <row r="117" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
-      <c r="B117" s="70"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="12"/>
-      <c r="D117" s="70"/>
+      <c r="D117" s="46"/>
       <c r="E117" s="12"/>
-      <c r="F117" s="67"/>
+      <c r="F117" s="43"/>
       <c r="G117" s="12"/>
-      <c r="H117" s="67"/>
+      <c r="H117" s="43"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="67"/>
+      <c r="J117" s="43"/>
       <c r="K117" s="12"/>
-      <c r="L117" s="67"/>
+      <c r="L117" s="43"/>
       <c r="M117" s="12"/>
-      <c r="N117" s="67"/>
+      <c r="N117" s="43"/>
       <c r="O117" s="12"/>
-      <c r="P117" s="67"/>
+      <c r="P117" s="43"/>
       <c r="Q117" s="12"/>
-      <c r="R117" s="67"/>
+      <c r="R117" s="43"/>
       <c r="S117" s="12"/>
-      <c r="T117" s="67"/>
+      <c r="T117" s="43"/>
       <c r="U117" s="12"/>
-      <c r="V117" s="67"/>
+      <c r="V117" s="43"/>
       <c r="W117" s="12"/>
-      <c r="X117" s="67"/>
+      <c r="X117" s="43"/>
       <c r="Y117" s="12"/>
-      <c r="Z117" s="67"/>
+      <c r="Z117" s="43"/>
       <c r="AA117" s="12"/>
-      <c r="AB117" s="67"/>
+      <c r="AB117" s="43"/>
       <c r="AC117" s="12"/>
-      <c r="AD117" s="67"/>
+      <c r="AD117" s="43"/>
       <c r="AE117" s="12"/>
-      <c r="AF117" s="67"/>
+      <c r="AF117" s="43"/>
       <c r="AG117" s="12"/>
     </row>
-    <row r="118" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
-      <c r="B118" s="70"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="12"/>
-      <c r="D118" s="70"/>
+      <c r="D118" s="46"/>
       <c r="E118" s="12"/>
-      <c r="F118" s="67"/>
+      <c r="F118" s="43"/>
       <c r="G118" s="12"/>
-      <c r="H118" s="67"/>
+      <c r="H118" s="43"/>
       <c r="I118" s="12"/>
-      <c r="J118" s="67"/>
+      <c r="J118" s="43"/>
       <c r="K118" s="12"/>
-      <c r="L118" s="67"/>
+      <c r="L118" s="43"/>
       <c r="M118" s="12"/>
-      <c r="N118" s="67"/>
+      <c r="N118" s="43"/>
       <c r="O118" s="12"/>
-      <c r="P118" s="67"/>
+      <c r="P118" s="43"/>
       <c r="Q118" s="12"/>
-      <c r="R118" s="67"/>
+      <c r="R118" s="43"/>
       <c r="S118" s="12"/>
-      <c r="T118" s="67"/>
+      <c r="T118" s="43"/>
       <c r="U118" s="12"/>
-      <c r="V118" s="67"/>
+      <c r="V118" s="43"/>
       <c r="W118" s="12"/>
-      <c r="X118" s="67"/>
+      <c r="X118" s="43"/>
       <c r="Y118" s="12"/>
-      <c r="Z118" s="67"/>
+      <c r="Z118" s="43"/>
       <c r="AA118" s="12"/>
-      <c r="AB118" s="67"/>
+      <c r="AB118" s="43"/>
       <c r="AC118" s="12"/>
-      <c r="AD118" s="67"/>
+      <c r="AD118" s="43"/>
       <c r="AE118" s="12"/>
-      <c r="AF118" s="67"/>
+      <c r="AF118" s="43"/>
       <c r="AG118" s="12"/>
     </row>
-    <row r="119" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
-      <c r="B119" s="70"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="12"/>
-      <c r="D119" s="70"/>
+      <c r="D119" s="46"/>
       <c r="E119" s="12"/>
-      <c r="F119" s="67"/>
+      <c r="F119" s="43"/>
       <c r="G119" s="12"/>
-      <c r="H119" s="67"/>
+      <c r="H119" s="43"/>
       <c r="I119" s="12"/>
-      <c r="J119" s="67"/>
+      <c r="J119" s="43"/>
       <c r="K119" s="12"/>
-      <c r="L119" s="67"/>
+      <c r="L119" s="43"/>
       <c r="M119" s="12"/>
-      <c r="N119" s="67"/>
+      <c r="N119" s="43"/>
       <c r="O119" s="12"/>
-      <c r="P119" s="67"/>
+      <c r="P119" s="43"/>
       <c r="Q119" s="12"/>
-      <c r="R119" s="67"/>
+      <c r="R119" s="43"/>
       <c r="S119" s="12"/>
-      <c r="T119" s="67"/>
+      <c r="T119" s="43"/>
       <c r="U119" s="12"/>
-      <c r="V119" s="67"/>
+      <c r="V119" s="43"/>
       <c r="W119" s="12"/>
-      <c r="X119" s="67"/>
+      <c r="X119" s="43"/>
       <c r="Y119" s="12"/>
-      <c r="Z119" s="67"/>
+      <c r="Z119" s="43"/>
       <c r="AA119" s="12"/>
-      <c r="AB119" s="67"/>
+      <c r="AB119" s="43"/>
       <c r="AC119" s="12"/>
-      <c r="AD119" s="67"/>
+      <c r="AD119" s="43"/>
       <c r="AE119" s="12"/>
-      <c r="AF119" s="67"/>
+      <c r="AF119" s="43"/>
       <c r="AG119" s="12"/>
     </row>
-    <row r="120" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
-      <c r="B120" s="70"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="12"/>
-      <c r="D120" s="70"/>
+      <c r="D120" s="46"/>
       <c r="E120" s="12"/>
-      <c r="F120" s="67"/>
+      <c r="F120" s="43"/>
       <c r="G120" s="12"/>
-      <c r="H120" s="67"/>
+      <c r="H120" s="43"/>
       <c r="I120" s="12"/>
-      <c r="J120" s="67"/>
+      <c r="J120" s="43"/>
       <c r="K120" s="12"/>
-      <c r="L120" s="67"/>
+      <c r="L120" s="43"/>
       <c r="M120" s="12"/>
-      <c r="N120" s="67"/>
+      <c r="N120" s="43"/>
       <c r="O120" s="12"/>
-      <c r="P120" s="67"/>
+      <c r="P120" s="43"/>
       <c r="Q120" s="12"/>
-      <c r="R120" s="67"/>
+      <c r="R120" s="43"/>
       <c r="S120" s="12"/>
-      <c r="T120" s="67"/>
+      <c r="T120" s="43"/>
       <c r="U120" s="12"/>
-      <c r="V120" s="67"/>
+      <c r="V120" s="43"/>
       <c r="W120" s="12"/>
-      <c r="X120" s="67"/>
+      <c r="X120" s="43"/>
       <c r="Y120" s="12"/>
-      <c r="Z120" s="67"/>
+      <c r="Z120" s="43"/>
       <c r="AA120" s="12"/>
-      <c r="AB120" s="67"/>
+      <c r="AB120" s="43"/>
       <c r="AC120" s="12"/>
-      <c r="AD120" s="67"/>
+      <c r="AD120" s="43"/>
       <c r="AE120" s="12"/>
-      <c r="AF120" s="67"/>
+      <c r="AF120" s="43"/>
       <c r="AG120" s="12"/>
     </row>
-    <row r="121" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
-      <c r="B121" s="70"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="12"/>
-      <c r="D121" s="70"/>
+      <c r="D121" s="46"/>
       <c r="E121" s="12"/>
-      <c r="F121" s="67"/>
+      <c r="F121" s="43"/>
       <c r="G121" s="12"/>
-      <c r="H121" s="67"/>
+      <c r="H121" s="43"/>
       <c r="I121" s="12"/>
-      <c r="J121" s="67"/>
+      <c r="J121" s="43"/>
       <c r="K121" s="12"/>
-      <c r="L121" s="67"/>
+      <c r="L121" s="43"/>
       <c r="M121" s="12"/>
-      <c r="N121" s="67"/>
+      <c r="N121" s="43"/>
       <c r="O121" s="12"/>
-      <c r="P121" s="67"/>
+      <c r="P121" s="43"/>
       <c r="Q121" s="12"/>
-      <c r="R121" s="67"/>
+      <c r="R121" s="43"/>
       <c r="S121" s="12"/>
-      <c r="T121" s="67"/>
+      <c r="T121" s="43"/>
       <c r="U121" s="12"/>
-      <c r="V121" s="67"/>
+      <c r="V121" s="43"/>
       <c r="W121" s="12"/>
-      <c r="X121" s="67"/>
+      <c r="X121" s="43"/>
       <c r="Y121" s="12"/>
-      <c r="Z121" s="67"/>
+      <c r="Z121" s="43"/>
       <c r="AA121" s="12"/>
-      <c r="AB121" s="67"/>
+      <c r="AB121" s="43"/>
       <c r="AC121" s="12"/>
-      <c r="AD121" s="67"/>
+      <c r="AD121" s="43"/>
       <c r="AE121" s="12"/>
-      <c r="AF121" s="67"/>
+      <c r="AF121" s="43"/>
       <c r="AG121" s="12"/>
     </row>
-    <row r="122" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
-      <c r="B122" s="70"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="12"/>
-      <c r="D122" s="70"/>
+      <c r="D122" s="46"/>
       <c r="E122" s="12"/>
-      <c r="F122" s="67"/>
+      <c r="F122" s="43"/>
       <c r="G122" s="12"/>
-      <c r="H122" s="67"/>
+      <c r="H122" s="43"/>
       <c r="I122" s="12"/>
-      <c r="J122" s="67"/>
+      <c r="J122" s="43"/>
       <c r="K122" s="12"/>
-      <c r="L122" s="67"/>
+      <c r="L122" s="43"/>
       <c r="M122" s="12"/>
-      <c r="N122" s="67"/>
+      <c r="N122" s="43"/>
       <c r="O122" s="12"/>
-      <c r="P122" s="67"/>
+      <c r="P122" s="43"/>
       <c r="Q122" s="12"/>
-      <c r="R122" s="67"/>
+      <c r="R122" s="43"/>
       <c r="S122" s="12"/>
-      <c r="T122" s="67"/>
+      <c r="T122" s="43"/>
       <c r="U122" s="12"/>
-      <c r="V122" s="67"/>
+      <c r="V122" s="43"/>
       <c r="W122" s="12"/>
-      <c r="X122" s="67"/>
+      <c r="X122" s="43"/>
       <c r="Y122" s="12"/>
-      <c r="Z122" s="67"/>
+      <c r="Z122" s="43"/>
       <c r="AA122" s="12"/>
-      <c r="AB122" s="67"/>
+      <c r="AB122" s="43"/>
       <c r="AC122" s="12"/>
-      <c r="AD122" s="67"/>
+      <c r="AD122" s="43"/>
       <c r="AE122" s="12"/>
-      <c r="AF122" s="67"/>
+      <c r="AF122" s="43"/>
       <c r="AG122" s="12"/>
     </row>
-    <row r="123" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
-      <c r="B123" s="70"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="12"/>
-      <c r="D123" s="70"/>
+      <c r="D123" s="46"/>
       <c r="E123" s="12"/>
-      <c r="F123" s="67"/>
+      <c r="F123" s="43"/>
       <c r="G123" s="12"/>
-      <c r="H123" s="67"/>
+      <c r="H123" s="43"/>
       <c r="I123" s="12"/>
-      <c r="J123" s="67"/>
+      <c r="J123" s="43"/>
       <c r="K123" s="12"/>
-      <c r="L123" s="67"/>
+      <c r="L123" s="43"/>
       <c r="M123" s="12"/>
-      <c r="N123" s="67"/>
+      <c r="N123" s="43"/>
       <c r="O123" s="12"/>
-      <c r="P123" s="67"/>
+      <c r="P123" s="43"/>
       <c r="Q123" s="12"/>
-      <c r="R123" s="67"/>
+      <c r="R123" s="43"/>
       <c r="S123" s="12"/>
-      <c r="T123" s="67"/>
+      <c r="T123" s="43"/>
       <c r="U123" s="12"/>
-      <c r="V123" s="67"/>
+      <c r="V123" s="43"/>
       <c r="W123" s="12"/>
-      <c r="X123" s="67"/>
+      <c r="X123" s="43"/>
       <c r="Y123" s="12"/>
-      <c r="Z123" s="67"/>
+      <c r="Z123" s="43"/>
       <c r="AA123" s="12"/>
-      <c r="AB123" s="67"/>
+      <c r="AB123" s="43"/>
       <c r="AC123" s="12"/>
-      <c r="AD123" s="67"/>
+      <c r="AD123" s="43"/>
       <c r="AE123" s="12"/>
-      <c r="AF123" s="67"/>
+      <c r="AF123" s="43"/>
       <c r="AG123" s="12"/>
     </row>
-    <row r="124" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
-      <c r="B124" s="70"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="12"/>
-      <c r="D124" s="70"/>
+      <c r="D124" s="46"/>
       <c r="E124" s="12"/>
-      <c r="F124" s="67"/>
+      <c r="F124" s="43"/>
       <c r="G124" s="12"/>
-      <c r="H124" s="67"/>
+      <c r="H124" s="43"/>
       <c r="I124" s="12"/>
-      <c r="J124" s="67"/>
+      <c r="J124" s="43"/>
       <c r="K124" s="12"/>
-      <c r="L124" s="67"/>
+      <c r="L124" s="43"/>
       <c r="M124" s="12"/>
-      <c r="N124" s="67"/>
+      <c r="N124" s="43"/>
       <c r="O124" s="12"/>
-      <c r="P124" s="67"/>
+      <c r="P124" s="43"/>
       <c r="Q124" s="12"/>
-      <c r="R124" s="67"/>
+      <c r="R124" s="43"/>
       <c r="S124" s="12"/>
-      <c r="T124" s="67"/>
+      <c r="T124" s="43"/>
       <c r="U124" s="12"/>
-      <c r="V124" s="67"/>
+      <c r="V124" s="43"/>
       <c r="W124" s="12"/>
-      <c r="X124" s="67"/>
+      <c r="X124" s="43"/>
       <c r="Y124" s="12"/>
-      <c r="Z124" s="67"/>
+      <c r="Z124" s="43"/>
       <c r="AA124" s="12"/>
-      <c r="AB124" s="67"/>
+      <c r="AB124" s="43"/>
       <c r="AC124" s="12"/>
-      <c r="AD124" s="67"/>
+      <c r="AD124" s="43"/>
       <c r="AE124" s="12"/>
-      <c r="AF124" s="67"/>
+      <c r="AF124" s="43"/>
       <c r="AG124" s="12"/>
     </row>
-    <row r="125" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
-      <c r="B125" s="70"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="12"/>
-      <c r="D125" s="70"/>
+      <c r="D125" s="46"/>
       <c r="E125" s="12"/>
-      <c r="F125" s="67"/>
+      <c r="F125" s="43"/>
       <c r="G125" s="12"/>
-      <c r="H125" s="67"/>
+      <c r="H125" s="43"/>
       <c r="I125" s="12"/>
-      <c r="J125" s="67"/>
+      <c r="J125" s="43"/>
       <c r="K125" s="12"/>
-      <c r="L125" s="67"/>
+      <c r="L125" s="43"/>
       <c r="M125" s="12"/>
-      <c r="N125" s="67"/>
+      <c r="N125" s="43"/>
       <c r="O125" s="12"/>
-      <c r="P125" s="67"/>
+      <c r="P125" s="43"/>
       <c r="Q125" s="12"/>
-      <c r="R125" s="67"/>
+      <c r="R125" s="43"/>
       <c r="S125" s="12"/>
-      <c r="T125" s="67"/>
+      <c r="T125" s="43"/>
       <c r="U125" s="12"/>
-      <c r="V125" s="67"/>
+      <c r="V125" s="43"/>
       <c r="W125" s="12"/>
-      <c r="X125" s="67"/>
+      <c r="X125" s="43"/>
       <c r="Y125" s="12"/>
-      <c r="Z125" s="67"/>
+      <c r="Z125" s="43"/>
       <c r="AA125" s="12"/>
-      <c r="AB125" s="67"/>
+      <c r="AB125" s="43"/>
       <c r="AC125" s="12"/>
-      <c r="AD125" s="67"/>
+      <c r="AD125" s="43"/>
       <c r="AE125" s="12"/>
-      <c r="AF125" s="67"/>
+      <c r="AF125" s="43"/>
       <c r="AG125" s="12"/>
     </row>
-    <row r="126" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
-      <c r="B126" s="70"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="70"/>
+      <c r="D126" s="46"/>
       <c r="E126" s="12"/>
-      <c r="F126" s="67"/>
+      <c r="F126" s="43"/>
       <c r="G126" s="12"/>
-      <c r="H126" s="67"/>
+      <c r="H126" s="43"/>
       <c r="I126" s="12"/>
-      <c r="J126" s="67"/>
+      <c r="J126" s="43"/>
       <c r="K126" s="12"/>
-      <c r="L126" s="67"/>
+      <c r="L126" s="43"/>
       <c r="M126" s="12"/>
-      <c r="N126" s="67"/>
+      <c r="N126" s="43"/>
       <c r="O126" s="12"/>
-      <c r="P126" s="67"/>
+      <c r="P126" s="43"/>
       <c r="Q126" s="12"/>
-      <c r="R126" s="67"/>
+      <c r="R126" s="43"/>
       <c r="S126" s="12"/>
-      <c r="T126" s="67"/>
+      <c r="T126" s="43"/>
       <c r="U126" s="12"/>
-      <c r="V126" s="67"/>
+      <c r="V126" s="43"/>
       <c r="W126" s="12"/>
-      <c r="X126" s="67"/>
+      <c r="X126" s="43"/>
       <c r="Y126" s="12"/>
-      <c r="Z126" s="67"/>
+      <c r="Z126" s="43"/>
       <c r="AA126" s="12"/>
-      <c r="AB126" s="67"/>
+      <c r="AB126" s="43"/>
       <c r="AC126" s="12"/>
-      <c r="AD126" s="67"/>
+      <c r="AD126" s="43"/>
       <c r="AE126" s="12"/>
-      <c r="AF126" s="67"/>
+      <c r="AF126" s="43"/>
       <c r="AG126" s="12"/>
     </row>
-    <row r="127" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
-      <c r="B127" s="70"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="12"/>
-      <c r="D127" s="70"/>
+      <c r="D127" s="46"/>
       <c r="E127" s="12"/>
-      <c r="F127" s="67"/>
+      <c r="F127" s="43"/>
       <c r="G127" s="12"/>
-      <c r="H127" s="67"/>
+      <c r="H127" s="43"/>
       <c r="I127" s="12"/>
-      <c r="J127" s="67"/>
+      <c r="J127" s="43"/>
       <c r="K127" s="12"/>
-      <c r="L127" s="67"/>
+      <c r="L127" s="43"/>
       <c r="M127" s="12"/>
-      <c r="N127" s="67"/>
+      <c r="N127" s="43"/>
       <c r="O127" s="12"/>
-      <c r="P127" s="67"/>
+      <c r="P127" s="43"/>
       <c r="Q127" s="12"/>
-      <c r="R127" s="67"/>
+      <c r="R127" s="43"/>
       <c r="S127" s="12"/>
-      <c r="T127" s="67"/>
+      <c r="T127" s="43"/>
       <c r="U127" s="12"/>
-      <c r="V127" s="67"/>
+      <c r="V127" s="43"/>
       <c r="W127" s="12"/>
-      <c r="X127" s="67"/>
+      <c r="X127" s="43"/>
       <c r="Y127" s="12"/>
-      <c r="Z127" s="67"/>
+      <c r="Z127" s="43"/>
       <c r="AA127" s="12"/>
-      <c r="AB127" s="67"/>
+      <c r="AB127" s="43"/>
       <c r="AC127" s="12"/>
-      <c r="AD127" s="67"/>
+      <c r="AD127" s="43"/>
       <c r="AE127" s="12"/>
-      <c r="AF127" s="67"/>
+      <c r="AF127" s="43"/>
       <c r="AG127" s="12"/>
     </row>
-    <row r="128" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
-      <c r="B128" s="70"/>
+      <c r="B128" s="46"/>
       <c r="C128" s="12"/>
-      <c r="D128" s="70"/>
+      <c r="D128" s="46"/>
       <c r="E128" s="12"/>
-      <c r="F128" s="67"/>
+      <c r="F128" s="43"/>
       <c r="G128" s="12"/>
-      <c r="H128" s="67"/>
+      <c r="H128" s="43"/>
       <c r="I128" s="12"/>
-      <c r="J128" s="67"/>
+      <c r="J128" s="43"/>
       <c r="K128" s="12"/>
-      <c r="L128" s="67"/>
+      <c r="L128" s="43"/>
       <c r="M128" s="12"/>
-      <c r="N128" s="67"/>
+      <c r="N128" s="43"/>
       <c r="O128" s="12"/>
-      <c r="P128" s="67"/>
+      <c r="P128" s="43"/>
       <c r="Q128" s="12"/>
-      <c r="R128" s="67"/>
+      <c r="R128" s="43"/>
       <c r="S128" s="12"/>
-      <c r="T128" s="67"/>
+      <c r="T128" s="43"/>
       <c r="U128" s="12"/>
-      <c r="V128" s="67"/>
+      <c r="V128" s="43"/>
       <c r="W128" s="12"/>
-      <c r="X128" s="67"/>
+      <c r="X128" s="43"/>
       <c r="Y128" s="12"/>
-      <c r="Z128" s="67"/>
+      <c r="Z128" s="43"/>
       <c r="AA128" s="12"/>
-      <c r="AB128" s="67"/>
+      <c r="AB128" s="43"/>
       <c r="AC128" s="12"/>
-      <c r="AD128" s="67"/>
+      <c r="AD128" s="43"/>
       <c r="AE128" s="12"/>
-      <c r="AF128" s="67"/>
+      <c r="AF128" s="43"/>
       <c r="AG128" s="12"/>
     </row>
-    <row r="129" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
-      <c r="B129" s="70"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="12"/>
-      <c r="D129" s="70"/>
+      <c r="D129" s="46"/>
       <c r="E129" s="12"/>
-      <c r="F129" s="67"/>
+      <c r="F129" s="43"/>
       <c r="G129" s="12"/>
-      <c r="H129" s="67"/>
+      <c r="H129" s="43"/>
       <c r="I129" s="12"/>
-      <c r="J129" s="67"/>
+      <c r="J129" s="43"/>
       <c r="K129" s="12"/>
-      <c r="L129" s="67"/>
+      <c r="L129" s="43"/>
       <c r="M129" s="12"/>
-      <c r="N129" s="67"/>
+      <c r="N129" s="43"/>
       <c r="O129" s="12"/>
-      <c r="P129" s="67"/>
+      <c r="P129" s="43"/>
       <c r="Q129" s="12"/>
-      <c r="R129" s="67"/>
+      <c r="R129" s="43"/>
       <c r="S129" s="12"/>
-      <c r="T129" s="67"/>
+      <c r="T129" s="43"/>
       <c r="U129" s="12"/>
-      <c r="V129" s="67"/>
+      <c r="V129" s="43"/>
       <c r="W129" s="12"/>
-      <c r="X129" s="67"/>
+      <c r="X129" s="43"/>
       <c r="Y129" s="12"/>
-      <c r="Z129" s="67"/>
+      <c r="Z129" s="43"/>
       <c r="AA129" s="12"/>
-      <c r="AB129" s="67"/>
+      <c r="AB129" s="43"/>
       <c r="AC129" s="12"/>
-      <c r="AD129" s="67"/>
+      <c r="AD129" s="43"/>
       <c r="AE129" s="12"/>
-      <c r="AF129" s="67"/>
+      <c r="AF129" s="43"/>
       <c r="AG129" s="12"/>
     </row>
-    <row r="130" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
-      <c r="B130" s="70"/>
+      <c r="B130" s="46"/>
       <c r="C130" s="12"/>
-      <c r="D130" s="70"/>
+      <c r="D130" s="46"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="67"/>
+      <c r="F130" s="43"/>
       <c r="G130" s="12"/>
-      <c r="H130" s="67"/>
+      <c r="H130" s="43"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="67"/>
+      <c r="J130" s="43"/>
       <c r="K130" s="12"/>
-      <c r="L130" s="67"/>
+      <c r="L130" s="43"/>
       <c r="M130" s="12"/>
-      <c r="N130" s="67"/>
+      <c r="N130" s="43"/>
       <c r="O130" s="12"/>
-      <c r="P130" s="67"/>
+      <c r="P130" s="43"/>
       <c r="Q130" s="12"/>
-      <c r="R130" s="67"/>
+      <c r="R130" s="43"/>
       <c r="S130" s="12"/>
-      <c r="T130" s="67"/>
+      <c r="T130" s="43"/>
       <c r="U130" s="12"/>
-      <c r="V130" s="67"/>
+      <c r="V130" s="43"/>
       <c r="W130" s="12"/>
-      <c r="X130" s="67"/>
+      <c r="X130" s="43"/>
       <c r="Y130" s="12"/>
-      <c r="Z130" s="67"/>
+      <c r="Z130" s="43"/>
       <c r="AA130" s="12"/>
-      <c r="AB130" s="67"/>
+      <c r="AB130" s="43"/>
       <c r="AC130" s="12"/>
-      <c r="AD130" s="67"/>
+      <c r="AD130" s="43"/>
       <c r="AE130" s="12"/>
-      <c r="AF130" s="67"/>
+      <c r="AF130" s="43"/>
       <c r="AG130" s="12"/>
     </row>
-    <row r="131" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
-      <c r="B131" s="70"/>
+      <c r="B131" s="46"/>
       <c r="C131" s="12"/>
-      <c r="D131" s="70"/>
+      <c r="D131" s="46"/>
       <c r="E131" s="12"/>
-      <c r="F131" s="67"/>
+      <c r="F131" s="43"/>
       <c r="G131" s="12"/>
-      <c r="H131" s="67"/>
+      <c r="H131" s="43"/>
       <c r="I131" s="12"/>
-      <c r="J131" s="67"/>
+      <c r="J131" s="43"/>
       <c r="K131" s="12"/>
-      <c r="L131" s="67"/>
+      <c r="L131" s="43"/>
       <c r="M131" s="12"/>
-      <c r="N131" s="67"/>
+      <c r="N131" s="43"/>
       <c r="O131" s="12"/>
-      <c r="P131" s="67"/>
+      <c r="P131" s="43"/>
       <c r="Q131" s="12"/>
-      <c r="R131" s="67"/>
+      <c r="R131" s="43"/>
       <c r="S131" s="12"/>
-      <c r="T131" s="67"/>
+      <c r="T131" s="43"/>
       <c r="U131" s="12"/>
-      <c r="V131" s="67"/>
+      <c r="V131" s="43"/>
       <c r="W131" s="12"/>
-      <c r="X131" s="67"/>
+      <c r="X131" s="43"/>
       <c r="Y131" s="12"/>
-      <c r="Z131" s="67"/>
+      <c r="Z131" s="43"/>
       <c r="AA131" s="12"/>
-      <c r="AB131" s="67"/>
+      <c r="AB131" s="43"/>
       <c r="AC131" s="12"/>
-      <c r="AD131" s="67"/>
+      <c r="AD131" s="43"/>
       <c r="AE131" s="12"/>
-      <c r="AF131" s="67"/>
+      <c r="AF131" s="43"/>
       <c r="AG131" s="12"/>
     </row>
-    <row r="132" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
-      <c r="B132" s="70"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="12"/>
-      <c r="D132" s="70"/>
+      <c r="D132" s="46"/>
       <c r="E132" s="12"/>
-      <c r="F132" s="67"/>
+      <c r="F132" s="43"/>
       <c r="G132" s="12"/>
-      <c r="H132" s="67"/>
+      <c r="H132" s="43"/>
       <c r="I132" s="12"/>
-      <c r="J132" s="67"/>
+      <c r="J132" s="43"/>
       <c r="K132" s="12"/>
-      <c r="L132" s="67"/>
+      <c r="L132" s="43"/>
       <c r="M132" s="12"/>
-      <c r="N132" s="67"/>
+      <c r="N132" s="43"/>
       <c r="O132" s="12"/>
-      <c r="P132" s="67"/>
+      <c r="P132" s="43"/>
       <c r="Q132" s="12"/>
-      <c r="R132" s="67"/>
+      <c r="R132" s="43"/>
       <c r="S132" s="12"/>
-      <c r="T132" s="67"/>
+      <c r="T132" s="43"/>
       <c r="U132" s="12"/>
-      <c r="V132" s="67"/>
+      <c r="V132" s="43"/>
       <c r="W132" s="12"/>
-      <c r="X132" s="67"/>
+      <c r="X132" s="43"/>
       <c r="Y132" s="12"/>
-      <c r="Z132" s="67"/>
+      <c r="Z132" s="43"/>
       <c r="AA132" s="12"/>
-      <c r="AB132" s="67"/>
+      <c r="AB132" s="43"/>
       <c r="AC132" s="12"/>
-      <c r="AD132" s="67"/>
+      <c r="AD132" s="43"/>
       <c r="AE132" s="12"/>
-      <c r="AF132" s="67"/>
+      <c r="AF132" s="43"/>
       <c r="AG132" s="12"/>
     </row>
-    <row r="133" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
-      <c r="B133" s="70"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="12"/>
-      <c r="D133" s="70"/>
+      <c r="D133" s="46"/>
       <c r="E133" s="12"/>
-      <c r="F133" s="67"/>
+      <c r="F133" s="43"/>
       <c r="G133" s="12"/>
-      <c r="H133" s="67"/>
+      <c r="H133" s="43"/>
       <c r="I133" s="12"/>
-      <c r="J133" s="67"/>
+      <c r="J133" s="43"/>
       <c r="K133" s="12"/>
-      <c r="L133" s="67"/>
+      <c r="L133" s="43"/>
       <c r="M133" s="12"/>
-      <c r="N133" s="67"/>
+      <c r="N133" s="43"/>
       <c r="O133" s="12"/>
-      <c r="P133" s="67"/>
+      <c r="P133" s="43"/>
       <c r="Q133" s="12"/>
-      <c r="R133" s="67"/>
+      <c r="R133" s="43"/>
       <c r="S133" s="12"/>
-      <c r="T133" s="67"/>
+      <c r="T133" s="43"/>
       <c r="U133" s="12"/>
-      <c r="V133" s="67"/>
+      <c r="V133" s="43"/>
       <c r="W133" s="12"/>
-      <c r="X133" s="67"/>
+      <c r="X133" s="43"/>
       <c r="Y133" s="12"/>
-      <c r="Z133" s="67"/>
+      <c r="Z133" s="43"/>
       <c r="AA133" s="12"/>
-      <c r="AB133" s="67"/>
+      <c r="AB133" s="43"/>
       <c r="AC133" s="12"/>
-      <c r="AD133" s="67"/>
+      <c r="AD133" s="43"/>
       <c r="AE133" s="12"/>
-      <c r="AF133" s="67"/>
+      <c r="AF133" s="43"/>
       <c r="AG133" s="12"/>
     </row>
-    <row r="134" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
-      <c r="B134" s="70"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="12"/>
-      <c r="D134" s="70"/>
+      <c r="D134" s="46"/>
       <c r="E134" s="12"/>
-      <c r="F134" s="67"/>
+      <c r="F134" s="43"/>
       <c r="G134" s="12"/>
-      <c r="H134" s="67"/>
+      <c r="H134" s="43"/>
       <c r="I134" s="12"/>
-      <c r="J134" s="67"/>
+      <c r="J134" s="43"/>
       <c r="K134" s="12"/>
-      <c r="L134" s="67"/>
+      <c r="L134" s="43"/>
       <c r="M134" s="12"/>
-      <c r="N134" s="67"/>
+      <c r="N134" s="43"/>
       <c r="O134" s="12"/>
-      <c r="P134" s="67"/>
+      <c r="P134" s="43"/>
       <c r="Q134" s="12"/>
-      <c r="R134" s="67"/>
+      <c r="R134" s="43"/>
       <c r="S134" s="12"/>
-      <c r="T134" s="67"/>
+      <c r="T134" s="43"/>
       <c r="U134" s="12"/>
-      <c r="V134" s="67"/>
+      <c r="V134" s="43"/>
       <c r="W134" s="12"/>
-      <c r="X134" s="67"/>
+      <c r="X134" s="43"/>
       <c r="Y134" s="12"/>
-      <c r="Z134" s="67"/>
+      <c r="Z134" s="43"/>
       <c r="AA134" s="12"/>
-      <c r="AB134" s="67"/>
+      <c r="AB134" s="43"/>
       <c r="AC134" s="12"/>
-      <c r="AD134" s="67"/>
+      <c r="AD134" s="43"/>
       <c r="AE134" s="12"/>
-      <c r="AF134" s="67"/>
+      <c r="AF134" s="43"/>
       <c r="AG134" s="12"/>
     </row>
-    <row r="135" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
-      <c r="B135" s="70"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="12"/>
-      <c r="D135" s="70"/>
+      <c r="D135" s="46"/>
       <c r="E135" s="12"/>
-      <c r="F135" s="67"/>
+      <c r="F135" s="43"/>
       <c r="G135" s="12"/>
-      <c r="H135" s="67"/>
+      <c r="H135" s="43"/>
       <c r="I135" s="12"/>
-      <c r="J135" s="67"/>
+      <c r="J135" s="43"/>
       <c r="K135" s="12"/>
-      <c r="L135" s="67"/>
+      <c r="L135" s="43"/>
       <c r="M135" s="12"/>
-      <c r="N135" s="67"/>
+      <c r="N135" s="43"/>
       <c r="O135" s="12"/>
-      <c r="P135" s="67"/>
+      <c r="P135" s="43"/>
       <c r="Q135" s="12"/>
-      <c r="R135" s="67"/>
+      <c r="R135" s="43"/>
       <c r="S135" s="12"/>
-      <c r="T135" s="67"/>
+      <c r="T135" s="43"/>
       <c r="U135" s="12"/>
-      <c r="V135" s="67"/>
+      <c r="V135" s="43"/>
       <c r="W135" s="12"/>
-      <c r="X135" s="67"/>
+      <c r="X135" s="43"/>
       <c r="Y135" s="12"/>
-      <c r="Z135" s="67"/>
+      <c r="Z135" s="43"/>
       <c r="AA135" s="12"/>
-      <c r="AB135" s="67"/>
+      <c r="AB135" s="43"/>
       <c r="AC135" s="12"/>
-      <c r="AD135" s="67"/>
+      <c r="AD135" s="43"/>
       <c r="AE135" s="12"/>
-      <c r="AF135" s="67"/>
+      <c r="AF135" s="43"/>
       <c r="AG135" s="12"/>
     </row>
-    <row r="136" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
-      <c r="B136" s="70"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="12"/>
-      <c r="D136" s="70"/>
+      <c r="D136" s="46"/>
       <c r="E136" s="12"/>
-      <c r="F136" s="67"/>
+      <c r="F136" s="43"/>
       <c r="G136" s="12"/>
-      <c r="H136" s="67"/>
+      <c r="H136" s="43"/>
       <c r="I136" s="12"/>
-      <c r="J136" s="67"/>
+      <c r="J136" s="43"/>
       <c r="K136" s="12"/>
-      <c r="L136" s="67"/>
+      <c r="L136" s="43"/>
       <c r="M136" s="12"/>
-      <c r="N136" s="67"/>
+      <c r="N136" s="43"/>
       <c r="O136" s="12"/>
-      <c r="P136" s="67"/>
+      <c r="P136" s="43"/>
       <c r="Q136" s="12"/>
-      <c r="R136" s="67"/>
+      <c r="R136" s="43"/>
       <c r="S136" s="12"/>
-      <c r="T136" s="67"/>
+      <c r="T136" s="43"/>
       <c r="U136" s="12"/>
-      <c r="V136" s="67"/>
+      <c r="V136" s="43"/>
       <c r="W136" s="12"/>
-      <c r="X136" s="67"/>
+      <c r="X136" s="43"/>
       <c r="Y136" s="12"/>
-      <c r="Z136" s="67"/>
+      <c r="Z136" s="43"/>
       <c r="AA136" s="12"/>
-      <c r="AB136" s="67"/>
+      <c r="AB136" s="43"/>
       <c r="AC136" s="12"/>
-      <c r="AD136" s="67"/>
+      <c r="AD136" s="43"/>
       <c r="AE136" s="12"/>
-      <c r="AF136" s="67"/>
+      <c r="AF136" s="43"/>
       <c r="AG136" s="12"/>
     </row>
-    <row r="137" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
-      <c r="B137" s="70"/>
+      <c r="B137" s="46"/>
       <c r="C137" s="12"/>
-      <c r="D137" s="70"/>
+      <c r="D137" s="46"/>
       <c r="E137" s="12"/>
-      <c r="F137" s="67"/>
+      <c r="F137" s="43"/>
       <c r="G137" s="12"/>
-      <c r="H137" s="67"/>
+      <c r="H137" s="43"/>
       <c r="I137" s="12"/>
-      <c r="J137" s="67"/>
+      <c r="J137" s="43"/>
       <c r="K137" s="12"/>
-      <c r="L137" s="67"/>
+      <c r="L137" s="43"/>
       <c r="M137" s="12"/>
-      <c r="N137" s="67"/>
+      <c r="N137" s="43"/>
       <c r="O137" s="12"/>
-      <c r="P137" s="67"/>
+      <c r="P137" s="43"/>
       <c r="Q137" s="12"/>
-      <c r="R137" s="67"/>
+      <c r="R137" s="43"/>
       <c r="S137" s="12"/>
-      <c r="T137" s="67"/>
+      <c r="T137" s="43"/>
       <c r="U137" s="12"/>
-      <c r="V137" s="67"/>
+      <c r="V137" s="43"/>
       <c r="W137" s="12"/>
-      <c r="X137" s="67"/>
+      <c r="X137" s="43"/>
       <c r="Y137" s="12"/>
-      <c r="Z137" s="67"/>
+      <c r="Z137" s="43"/>
       <c r="AA137" s="12"/>
-      <c r="AB137" s="67"/>
+      <c r="AB137" s="43"/>
       <c r="AC137" s="12"/>
-      <c r="AD137" s="67"/>
+      <c r="AD137" s="43"/>
       <c r="AE137" s="12"/>
-      <c r="AF137" s="67"/>
+      <c r="AF137" s="43"/>
       <c r="AG137" s="12"/>
     </row>
-    <row r="138" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
-      <c r="B138" s="70"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="12"/>
-      <c r="D138" s="70"/>
+      <c r="D138" s="46"/>
       <c r="E138" s="12"/>
-      <c r="F138" s="67"/>
+      <c r="F138" s="43"/>
       <c r="G138" s="12"/>
-      <c r="H138" s="67"/>
+      <c r="H138" s="43"/>
       <c r="I138" s="12"/>
-      <c r="J138" s="67"/>
+      <c r="J138" s="43"/>
       <c r="K138" s="12"/>
-      <c r="L138" s="67"/>
+      <c r="L138" s="43"/>
       <c r="M138" s="12"/>
-      <c r="N138" s="67"/>
+      <c r="N138" s="43"/>
       <c r="O138" s="12"/>
-      <c r="P138" s="67"/>
+      <c r="P138" s="43"/>
       <c r="Q138" s="12"/>
-      <c r="R138" s="67"/>
+      <c r="R138" s="43"/>
       <c r="S138" s="12"/>
-      <c r="T138" s="67"/>
+      <c r="T138" s="43"/>
       <c r="U138" s="12"/>
-      <c r="V138" s="67"/>
+      <c r="V138" s="43"/>
       <c r="W138" s="12"/>
-      <c r="X138" s="67"/>
+      <c r="X138" s="43"/>
       <c r="Y138" s="12"/>
-      <c r="Z138" s="67"/>
+      <c r="Z138" s="43"/>
       <c r="AA138" s="12"/>
-      <c r="AB138" s="67"/>
+      <c r="AB138" s="43"/>
       <c r="AC138" s="12"/>
-      <c r="AD138" s="67"/>
+      <c r="AD138" s="43"/>
       <c r="AE138" s="12"/>
-      <c r="AF138" s="67"/>
+      <c r="AF138" s="43"/>
       <c r="AG138" s="12"/>
     </row>
-    <row r="139" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
-      <c r="B139" s="70"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="12"/>
-      <c r="D139" s="70"/>
+      <c r="D139" s="46"/>
       <c r="E139" s="12"/>
-      <c r="F139" s="67"/>
+      <c r="F139" s="43"/>
       <c r="G139" s="12"/>
-      <c r="H139" s="67"/>
+      <c r="H139" s="43"/>
       <c r="I139" s="12"/>
-      <c r="J139" s="67"/>
+      <c r="J139" s="43"/>
       <c r="K139" s="12"/>
-      <c r="L139" s="67"/>
+      <c r="L139" s="43"/>
       <c r="M139" s="12"/>
-      <c r="N139" s="67"/>
+      <c r="N139" s="43"/>
       <c r="O139" s="12"/>
-      <c r="P139" s="67"/>
+      <c r="P139" s="43"/>
       <c r="Q139" s="12"/>
-      <c r="R139" s="67"/>
+      <c r="R139" s="43"/>
       <c r="S139" s="12"/>
-      <c r="T139" s="67"/>
+      <c r="T139" s="43"/>
       <c r="U139" s="12"/>
-      <c r="V139" s="67"/>
+      <c r="V139" s="43"/>
       <c r="W139" s="12"/>
-      <c r="X139" s="67"/>
+      <c r="X139" s="43"/>
       <c r="Y139" s="12"/>
-      <c r="Z139" s="67"/>
+      <c r="Z139" s="43"/>
       <c r="AA139" s="12"/>
-      <c r="AB139" s="67"/>
+      <c r="AB139" s="43"/>
       <c r="AC139" s="12"/>
-      <c r="AD139" s="67"/>
+      <c r="AD139" s="43"/>
       <c r="AE139" s="12"/>
-      <c r="AF139" s="67"/>
+      <c r="AF139" s="43"/>
       <c r="AG139" s="12"/>
     </row>
-    <row r="140" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
-      <c r="B140" s="70"/>
+      <c r="B140" s="46"/>
       <c r="C140" s="12"/>
-      <c r="D140" s="70"/>
+      <c r="D140" s="46"/>
       <c r="E140" s="12"/>
-      <c r="F140" s="67"/>
+      <c r="F140" s="43"/>
       <c r="G140" s="12"/>
-      <c r="H140" s="67"/>
+      <c r="H140" s="43"/>
       <c r="I140" s="12"/>
-      <c r="J140" s="67"/>
+      <c r="J140" s="43"/>
       <c r="K140" s="12"/>
-      <c r="L140" s="67"/>
+      <c r="L140" s="43"/>
       <c r="M140" s="12"/>
-      <c r="N140" s="67"/>
+      <c r="N140" s="43"/>
       <c r="O140" s="12"/>
-      <c r="P140" s="67"/>
+      <c r="P140" s="43"/>
       <c r="Q140" s="12"/>
-      <c r="R140" s="67"/>
+      <c r="R140" s="43"/>
       <c r="S140" s="12"/>
-      <c r="T140" s="67"/>
+      <c r="T140" s="43"/>
       <c r="U140" s="12"/>
-      <c r="V140" s="67"/>
+      <c r="V140" s="43"/>
       <c r="W140" s="12"/>
-      <c r="X140" s="67"/>
+      <c r="X140" s="43"/>
       <c r="Y140" s="12"/>
-      <c r="Z140" s="67"/>
+      <c r="Z140" s="43"/>
       <c r="AA140" s="12"/>
-      <c r="AB140" s="67"/>
+      <c r="AB140" s="43"/>
       <c r="AC140" s="12"/>
-      <c r="AD140" s="67"/>
+      <c r="AD140" s="43"/>
       <c r="AE140" s="12"/>
-      <c r="AF140" s="67"/>
+      <c r="AF140" s="43"/>
       <c r="AG140" s="12"/>
     </row>
-    <row r="141" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
-      <c r="B141" s="70"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="12"/>
-      <c r="D141" s="70"/>
+      <c r="D141" s="46"/>
       <c r="E141" s="12"/>
-      <c r="F141" s="67"/>
+      <c r="F141" s="43"/>
       <c r="G141" s="12"/>
-      <c r="H141" s="67"/>
+      <c r="H141" s="43"/>
       <c r="I141" s="12"/>
-      <c r="J141" s="67"/>
+      <c r="J141" s="43"/>
       <c r="K141" s="12"/>
-      <c r="L141" s="67"/>
+      <c r="L141" s="43"/>
       <c r="M141" s="12"/>
-      <c r="N141" s="67"/>
+      <c r="N141" s="43"/>
       <c r="O141" s="12"/>
-      <c r="P141" s="67"/>
+      <c r="P141" s="43"/>
       <c r="Q141" s="12"/>
-      <c r="R141" s="67"/>
+      <c r="R141" s="43"/>
       <c r="S141" s="12"/>
-      <c r="T141" s="67"/>
+      <c r="T141" s="43"/>
       <c r="U141" s="12"/>
-      <c r="V141" s="67"/>
+      <c r="V141" s="43"/>
       <c r="W141" s="12"/>
-      <c r="X141" s="67"/>
+      <c r="X141" s="43"/>
       <c r="Y141" s="12"/>
-      <c r="Z141" s="67"/>
+      <c r="Z141" s="43"/>
       <c r="AA141" s="12"/>
-      <c r="AB141" s="67"/>
+      <c r="AB141" s="43"/>
       <c r="AC141" s="12"/>
-      <c r="AD141" s="67"/>
+      <c r="AD141" s="43"/>
       <c r="AE141" s="12"/>
-      <c r="AF141" s="67"/>
+      <c r="AF141" s="43"/>
       <c r="AG141" s="12"/>
     </row>
-    <row r="142" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
-      <c r="B142" s="70"/>
+      <c r="B142" s="46"/>
       <c r="C142" s="12"/>
-      <c r="D142" s="70"/>
+      <c r="D142" s="46"/>
       <c r="E142" s="12"/>
-      <c r="F142" s="67"/>
+      <c r="F142" s="43"/>
       <c r="G142" s="12"/>
-      <c r="H142" s="67"/>
+      <c r="H142" s="43"/>
       <c r="I142" s="12"/>
-      <c r="J142" s="67"/>
+      <c r="J142" s="43"/>
       <c r="K142" s="12"/>
-      <c r="L142" s="67"/>
+      <c r="L142" s="43"/>
       <c r="M142" s="12"/>
-      <c r="N142" s="67"/>
+      <c r="N142" s="43"/>
       <c r="O142" s="12"/>
-      <c r="P142" s="67"/>
+      <c r="P142" s="43"/>
       <c r="Q142" s="12"/>
-      <c r="R142" s="67"/>
+      <c r="R142" s="43"/>
       <c r="S142" s="12"/>
-      <c r="T142" s="67"/>
+      <c r="T142" s="43"/>
       <c r="U142" s="12"/>
-      <c r="V142" s="67"/>
+      <c r="V142" s="43"/>
       <c r="W142" s="12"/>
-      <c r="X142" s="67"/>
+      <c r="X142" s="43"/>
       <c r="Y142" s="12"/>
-      <c r="Z142" s="67"/>
+      <c r="Z142" s="43"/>
       <c r="AA142" s="12"/>
-      <c r="AB142" s="67"/>
+      <c r="AB142" s="43"/>
       <c r="AC142" s="12"/>
-      <c r="AD142" s="67"/>
+      <c r="AD142" s="43"/>
       <c r="AE142" s="12"/>
-      <c r="AF142" s="67"/>
+      <c r="AF142" s="43"/>
       <c r="AG142" s="12"/>
     </row>
-    <row r="143" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
-      <c r="B143" s="70"/>
+      <c r="B143" s="46"/>
       <c r="C143" s="12"/>
-      <c r="D143" s="70"/>
+      <c r="D143" s="46"/>
       <c r="E143" s="12"/>
-      <c r="F143" s="67"/>
+      <c r="F143" s="43"/>
       <c r="G143" s="12"/>
-      <c r="H143" s="67"/>
+      <c r="H143" s="43"/>
       <c r="I143" s="12"/>
-      <c r="J143" s="67"/>
+      <c r="J143" s="43"/>
       <c r="K143" s="12"/>
-      <c r="L143" s="67"/>
+      <c r="L143" s="43"/>
       <c r="M143" s="12"/>
-      <c r="N143" s="67"/>
+      <c r="N143" s="43"/>
       <c r="O143" s="12"/>
-      <c r="P143" s="67"/>
+      <c r="P143" s="43"/>
       <c r="Q143" s="12"/>
-      <c r="R143" s="67"/>
+      <c r="R143" s="43"/>
       <c r="S143" s="12"/>
-      <c r="T143" s="67"/>
+      <c r="T143" s="43"/>
       <c r="U143" s="12"/>
-      <c r="V143" s="67"/>
+      <c r="V143" s="43"/>
       <c r="W143" s="12"/>
-      <c r="X143" s="67"/>
+      <c r="X143" s="43"/>
       <c r="Y143" s="12"/>
-      <c r="Z143" s="67"/>
+      <c r="Z143" s="43"/>
       <c r="AA143" s="12"/>
-      <c r="AB143" s="67"/>
+      <c r="AB143" s="43"/>
       <c r="AC143" s="12"/>
-      <c r="AD143" s="67"/>
+      <c r="AD143" s="43"/>
       <c r="AE143" s="12"/>
-      <c r="AF143" s="67"/>
+      <c r="AF143" s="43"/>
       <c r="AG143" s="12"/>
     </row>
-    <row r="144" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
-      <c r="B144" s="70"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="12"/>
-      <c r="D144" s="70"/>
+      <c r="D144" s="46"/>
       <c r="E144" s="12"/>
-      <c r="F144" s="67"/>
+      <c r="F144" s="43"/>
       <c r="G144" s="12"/>
-      <c r="H144" s="67"/>
+      <c r="H144" s="43"/>
       <c r="I144" s="12"/>
-      <c r="J144" s="67"/>
+      <c r="J144" s="43"/>
       <c r="K144" s="12"/>
-      <c r="L144" s="67"/>
+      <c r="L144" s="43"/>
       <c r="M144" s="12"/>
-      <c r="N144" s="67"/>
+      <c r="N144" s="43"/>
       <c r="O144" s="12"/>
-      <c r="P144" s="67"/>
+      <c r="P144" s="43"/>
       <c r="Q144" s="12"/>
-      <c r="R144" s="67"/>
+      <c r="R144" s="43"/>
       <c r="S144" s="12"/>
-      <c r="T144" s="67"/>
+      <c r="T144" s="43"/>
       <c r="U144" s="12"/>
-      <c r="V144" s="67"/>
+      <c r="V144" s="43"/>
       <c r="W144" s="12"/>
-      <c r="X144" s="67"/>
+      <c r="X144" s="43"/>
       <c r="Y144" s="12"/>
-      <c r="Z144" s="67"/>
+      <c r="Z144" s="43"/>
       <c r="AA144" s="12"/>
-      <c r="AB144" s="67"/>
+      <c r="AB144" s="43"/>
       <c r="AC144" s="12"/>
-      <c r="AD144" s="67"/>
+      <c r="AD144" s="43"/>
       <c r="AE144" s="12"/>
-      <c r="AF144" s="67"/>
+      <c r="AF144" s="43"/>
       <c r="AG144" s="12"/>
     </row>
-    <row r="145" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
-      <c r="B145" s="70"/>
+      <c r="B145" s="46"/>
       <c r="C145" s="12"/>
-      <c r="D145" s="70"/>
+      <c r="D145" s="46"/>
       <c r="E145" s="12"/>
-      <c r="F145" s="67"/>
+      <c r="F145" s="43"/>
       <c r="G145" s="12"/>
-      <c r="H145" s="67"/>
+      <c r="H145" s="43"/>
       <c r="I145" s="12"/>
-      <c r="J145" s="67"/>
+      <c r="J145" s="43"/>
       <c r="K145" s="12"/>
-      <c r="L145" s="67"/>
+      <c r="L145" s="43"/>
       <c r="M145" s="12"/>
-      <c r="N145" s="67"/>
+      <c r="N145" s="43"/>
       <c r="O145" s="12"/>
-      <c r="P145" s="67"/>
+      <c r="P145" s="43"/>
       <c r="Q145" s="12"/>
-      <c r="R145" s="67"/>
+      <c r="R145" s="43"/>
       <c r="S145" s="12"/>
-      <c r="T145" s="67"/>
+      <c r="T145" s="43"/>
       <c r="U145" s="12"/>
-      <c r="V145" s="67"/>
+      <c r="V145" s="43"/>
       <c r="W145" s="12"/>
-      <c r="X145" s="67"/>
+      <c r="X145" s="43"/>
       <c r="Y145" s="12"/>
-      <c r="Z145" s="67"/>
+      <c r="Z145" s="43"/>
       <c r="AA145" s="12"/>
     </row>
-    <row r="146" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
-      <c r="B146" s="70"/>
+      <c r="B146" s="46"/>
       <c r="C146" s="12"/>
-      <c r="D146" s="70"/>
+      <c r="D146" s="46"/>
       <c r="E146" s="12"/>
-      <c r="F146" s="67"/>
+      <c r="F146" s="43"/>
       <c r="G146" s="12"/>
-      <c r="H146" s="67"/>
+      <c r="H146" s="43"/>
       <c r="I146" s="12"/>
-      <c r="J146" s="67"/>
+      <c r="J146" s="43"/>
       <c r="K146" s="12"/>
-      <c r="L146" s="67"/>
+      <c r="L146" s="43"/>
       <c r="M146" s="12"/>
-      <c r="N146" s="67"/>
+      <c r="N146" s="43"/>
       <c r="O146" s="12"/>
-      <c r="P146" s="67"/>
+      <c r="P146" s="43"/>
       <c r="Q146" s="12"/>
-      <c r="R146" s="67"/>
+      <c r="R146" s="43"/>
       <c r="S146" s="12"/>
-      <c r="T146" s="67"/>
+      <c r="T146" s="43"/>
       <c r="U146" s="12"/>
-      <c r="V146" s="67"/>
+      <c r="V146" s="43"/>
       <c r="W146" s="12"/>
-      <c r="X146" s="67"/>
+      <c r="X146" s="43"/>
       <c r="Y146" s="12"/>
-      <c r="Z146" s="67"/>
+      <c r="Z146" s="43"/>
       <c r="AA146" s="12"/>
     </row>
-    <row r="147" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="B147" s="70"/>
+      <c r="B147" s="46"/>
       <c r="C147" s="12"/>
-      <c r="D147" s="70"/>
+      <c r="D147" s="46"/>
       <c r="E147" s="12"/>
-      <c r="F147" s="67"/>
+      <c r="F147" s="43"/>
       <c r="G147" s="12"/>
-      <c r="H147" s="67"/>
+      <c r="H147" s="43"/>
       <c r="I147" s="12"/>
-      <c r="J147" s="67"/>
+      <c r="J147" s="43"/>
       <c r="K147" s="12"/>
-      <c r="L147" s="67"/>
+      <c r="L147" s="43"/>
       <c r="M147" s="12"/>
-      <c r="N147" s="67"/>
+      <c r="N147" s="43"/>
       <c r="O147" s="12"/>
-      <c r="P147" s="67"/>
+      <c r="P147" s="43"/>
       <c r="Q147" s="12"/>
-      <c r="R147" s="67"/>
+      <c r="R147" s="43"/>
       <c r="S147" s="12"/>
-      <c r="T147" s="67"/>
+      <c r="T147" s="43"/>
       <c r="U147" s="12"/>
-      <c r="V147" s="67"/>
+      <c r="V147" s="43"/>
       <c r="W147" s="12"/>
-      <c r="X147" s="67"/>
+      <c r="X147" s="43"/>
       <c r="Y147" s="12"/>
-      <c r="Z147" s="67"/>
+      <c r="Z147" s="43"/>
       <c r="AA147" s="12"/>
     </row>
-    <row r="148" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
-      <c r="B148" s="70"/>
+      <c r="B148" s="46"/>
       <c r="C148" s="12"/>
-      <c r="D148" s="70"/>
+      <c r="D148" s="46"/>
       <c r="E148" s="12"/>
-      <c r="F148" s="67"/>
+      <c r="F148" s="43"/>
       <c r="G148" s="12"/>
-      <c r="H148" s="67"/>
+      <c r="H148" s="43"/>
       <c r="I148" s="12"/>
-      <c r="J148" s="67"/>
+      <c r="J148" s="43"/>
       <c r="K148" s="12"/>
-      <c r="L148" s="67"/>
+      <c r="L148" s="43"/>
       <c r="M148" s="12"/>
-      <c r="N148" s="67"/>
+      <c r="N148" s="43"/>
       <c r="O148" s="12"/>
-      <c r="P148" s="67"/>
+      <c r="P148" s="43"/>
       <c r="Q148" s="12"/>
-      <c r="R148" s="67"/>
+      <c r="R148" s="43"/>
       <c r="S148" s="12"/>
-      <c r="T148" s="67"/>
+      <c r="T148" s="43"/>
       <c r="U148" s="12"/>
-      <c r="V148" s="67"/>
+      <c r="V148" s="43"/>
       <c r="W148" s="12"/>
-      <c r="X148" s="67"/>
+      <c r="X148" s="43"/>
       <c r="Y148" s="12"/>
-      <c r="Z148" s="67"/>
+      <c r="Z148" s="43"/>
       <c r="AA148" s="12"/>
     </row>
   </sheetData>
@@ -10018,24 +10041,54 @@
     <sortCondition descending="1" ref="AH32:AH37"/>
   </sortState>
   <mergeCells count="82">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A38:AG38"/>
-    <mergeCell ref="A39:AG39"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A92:AG92"/>
+    <mergeCell ref="A88:AG88"/>
+    <mergeCell ref="A74:AG74"/>
+    <mergeCell ref="A75:AG75"/>
+    <mergeCell ref="A89:AG89"/>
+    <mergeCell ref="A90:AG90"/>
+    <mergeCell ref="A91:AG91"/>
+    <mergeCell ref="A65:AG65"/>
+    <mergeCell ref="A66:AG66"/>
+    <mergeCell ref="A71:AG71"/>
+    <mergeCell ref="A72:AG72"/>
+    <mergeCell ref="A73:AG73"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="A97:AG97"/>
+    <mergeCell ref="A98:AG98"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="A48:AG48"/>
+    <mergeCell ref="A49:AG49"/>
+    <mergeCell ref="A50:AG50"/>
+    <mergeCell ref="A51:AG51"/>
+    <mergeCell ref="A52:AG52"/>
+    <mergeCell ref="A53:AG53"/>
+    <mergeCell ref="A54:AG54"/>
+    <mergeCell ref="A55:AG55"/>
+    <mergeCell ref="A56:AG56"/>
+    <mergeCell ref="A57:AG57"/>
+    <mergeCell ref="A58:AG58"/>
+    <mergeCell ref="A59:AG59"/>
+    <mergeCell ref="A60:AG60"/>
+    <mergeCell ref="A96:AG96"/>
+    <mergeCell ref="A93:AG93"/>
+    <mergeCell ref="A40:AG40"/>
+    <mergeCell ref="A41:AG41"/>
+    <mergeCell ref="A67:AG67"/>
+    <mergeCell ref="A68:AG68"/>
+    <mergeCell ref="A69:AG69"/>
+    <mergeCell ref="A70:AG70"/>
+    <mergeCell ref="A43:AG43"/>
+    <mergeCell ref="A44:AG44"/>
+    <mergeCell ref="A45:AG45"/>
+    <mergeCell ref="A46:AG46"/>
+    <mergeCell ref="A61:AG61"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="A63:AG63"/>
+    <mergeCell ref="A64:AG64"/>
     <mergeCell ref="A99:AG99"/>
     <mergeCell ref="A100:AG100"/>
     <mergeCell ref="A76:AG76"/>
@@ -10052,54 +10105,24 @@
     <mergeCell ref="A87:AG87"/>
     <mergeCell ref="A94:AG94"/>
     <mergeCell ref="A95:AG95"/>
-    <mergeCell ref="A96:AG96"/>
-    <mergeCell ref="A93:AG93"/>
-    <mergeCell ref="A40:AG40"/>
-    <mergeCell ref="A41:AG41"/>
-    <mergeCell ref="A67:AG67"/>
-    <mergeCell ref="A68:AG68"/>
-    <mergeCell ref="A69:AG69"/>
-    <mergeCell ref="A70:AG70"/>
-    <mergeCell ref="A43:AG43"/>
-    <mergeCell ref="A44:AG44"/>
-    <mergeCell ref="A45:AG45"/>
-    <mergeCell ref="A46:AG46"/>
-    <mergeCell ref="A61:AG61"/>
-    <mergeCell ref="A62:AG62"/>
-    <mergeCell ref="A63:AG63"/>
-    <mergeCell ref="A64:AG64"/>
-    <mergeCell ref="A97:AG97"/>
-    <mergeCell ref="A98:AG98"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="A48:AG48"/>
-    <mergeCell ref="A49:AG49"/>
-    <mergeCell ref="A50:AG50"/>
-    <mergeCell ref="A51:AG51"/>
-    <mergeCell ref="A52:AG52"/>
-    <mergeCell ref="A53:AG53"/>
-    <mergeCell ref="A54:AG54"/>
-    <mergeCell ref="A55:AG55"/>
-    <mergeCell ref="A56:AG56"/>
-    <mergeCell ref="A57:AG57"/>
-    <mergeCell ref="A58:AG58"/>
-    <mergeCell ref="A59:AG59"/>
-    <mergeCell ref="A60:AG60"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A92:AG92"/>
-    <mergeCell ref="A88:AG88"/>
-    <mergeCell ref="A74:AG74"/>
-    <mergeCell ref="A75:AG75"/>
-    <mergeCell ref="A89:AG89"/>
-    <mergeCell ref="A90:AG90"/>
-    <mergeCell ref="A91:AG91"/>
-    <mergeCell ref="A65:AG65"/>
-    <mergeCell ref="A66:AG66"/>
-    <mergeCell ref="A71:AG71"/>
-    <mergeCell ref="A72:AG72"/>
-    <mergeCell ref="A73:AG73"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A38:AG38"/>
+    <mergeCell ref="A39:AG39"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
